--- a/myfolders/RegressionCaseStuty2/E-CommerceAnalysis.xlsx
+++ b/myfolders/RegressionCaseStuty2/E-CommerceAnalysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Business Problem" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,10 @@
     <definedName name="results_1" localSheetId="0">'Business Problem'!#REF!</definedName>
     <definedName name="results_1" localSheetId="1">'Descriptive Statistics'!$A$14:$B$16</definedName>
     <definedName name="results_2" localSheetId="4">DecileAnalysis!#REF!</definedName>
+    <definedName name="results_2" localSheetId="1">'Descriptive Statistics'!$A$20:$N$29</definedName>
     <definedName name="results_3" localSheetId="4">DecileAnalysis!$J$2:$M$12</definedName>
+    <definedName name="results_4" localSheetId="4">DecileAnalysis!$A$14:$E$24</definedName>
+    <definedName name="results_5" localSheetId="4">DecileAnalysis!$J$14:$N$24</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -62,17 +65,26 @@
       </tables>
     </webPr>
   </connection>
-  <connection id="6" name="Connection6" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="6" name="Connection5" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://192.168.150.129/SASStudio/36/sasexec/submissions/8559dbfc-b7cc-48b1-b408-f325dfdd8dfa/results" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="7" name="Connection6" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://192.168.150.129/SASStudio/36/sasexec/submissions/de78b571-72d4-4a79-b66d-47c1e148c324/results" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="7" name="Connection81" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="8" name="Connection7" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://192.168.150.129/SASStudio/36/sasexec/submissions/b828ff61-ea06-4311-beba-4ab30fbe3c2f/results" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="9" name="Connection8" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://192.168.150.129/SASStudio/36/sasexec/submissions/f9396cb5-5696-4082-b77c-710f05f7715a/results" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="10" name="Connection81" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://192.168.150.129/SASStudio/36/sasexec/submissions/6de62201-dfa4-4a95-9771-9373ec43caba/results" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="128">
   <si>
     <t>Variables in Creation Order</t>
   </si>
@@ -450,6 +462,12 @@
   </si>
   <si>
     <t>StayedCount</t>
+  </si>
+  <si>
+    <t>25th Pctl</t>
+  </si>
+  <si>
+    <t>75th Pctl</t>
   </si>
 </sst>
 </file>
@@ -645,7 +663,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -670,56 +688,14 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -770,9 +746,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -781,6 +754,66 @@
     </xf>
     <xf numFmtId="10" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -863,7 +896,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -953,31 +985,31 @@
                   <c:v>0.16711997582351162</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32547597461468725</c:v>
+                  <c:v>0.32577818071925052</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47809005741915989</c:v>
+                  <c:v>0.47657902689634329</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.61861589604110001</c:v>
+                  <c:v>0.61770927772741002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.73677848292535508</c:v>
+                  <c:v>0.73798730734360829</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8380175279540647</c:v>
+                  <c:v>0.83620429132668472</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.91900876397703235</c:v>
+                  <c:v>0.9196131761861589</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97673012994862496</c:v>
+                  <c:v>0.97703233605318818</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99425808401329707</c:v>
+                  <c:v>0.99395587790873363</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>0.99999999999999989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1010,31 +1042,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1646174863387978</c:v>
+                  <c:v>0.16325136612021857</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32786885245901637</c:v>
+                  <c:v>0.32581967213114749</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.48428961748633881</c:v>
+                  <c:v>0.48224043715846987</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.62704918032786883</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.73633879781420764</c:v>
+                  <c:v>0.73565573770491799</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.83265027322404372</c:v>
+                  <c:v>0.83196721311475408</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.90573770491803285</c:v>
+                  <c:v>0.90778688524590168</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.96106557377049184</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.9856557377049181</c:v>
+                  <c:v>0.98770491803278693</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1</c:v>
@@ -1164,11 +1196,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-654514928"/>
-        <c:axId val="-654514384"/>
+        <c:axId val="2115638832"/>
+        <c:axId val="2115646992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-654514928"/>
+        <c:axId val="2115638832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1209,14 +1241,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-654514384"/>
+        <c:crossAx val="2115646992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1224,7 +1255,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-654514384"/>
+        <c:axId val="2115646992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1278,14 +1309,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-654514928"/>
+        <c:crossAx val="2115638832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1299,7 +1329,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1366,7 +1395,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1450,31 +1478,31 @@
                   <c:v>1.6711997582351161</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6273798730734361</c:v>
+                  <c:v>1.6288909035962524</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5936335247305331</c:v>
+                  <c:v>1.5885967563211443</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5465397401027499</c:v>
+                  <c:v>1.5442731943185251</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4735569658507102</c:v>
+                  <c:v>1.4759746146872166</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3966958799234412</c:v>
+                  <c:v>1.3936738188778079</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3128696628243319</c:v>
+                  <c:v>1.31373310883737</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2209126624357811</c:v>
+                  <c:v>1.2212904200664851</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.104731204459219</c:v>
+                  <c:v>1.1043954198985928</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0.99999999999999989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1504,31 +1532,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.646174863387978</c:v>
+                  <c:v>1.6325136612021856</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6393442622950818</c:v>
+                  <c:v>1.6290983606557374</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6142987249544627</c:v>
+                  <c:v>1.6074681238615662</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.567622950819672</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4726775956284153</c:v>
+                  <c:v>1.471311475409836</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3877504553734064</c:v>
+                  <c:v>1.3866120218579234</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2939110070257613</c:v>
+                  <c:v>1.2968384074941453</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.2013319672131146</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0951730418943535</c:v>
+                  <c:v>1.0974499089253187</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1</c:v>
@@ -1644,11 +1672,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-657547200"/>
-        <c:axId val="-657543392"/>
+        <c:axId val="2115635568"/>
+        <c:axId val="2115645904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-657547200"/>
+        <c:axId val="2115635568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1689,14 +1717,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-657543392"/>
+        <c:crossAx val="2115645904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1704,7 +1731,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-657543392"/>
+        <c:axId val="2115645904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1745,7 +1772,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="0"/>
@@ -1761,7 +1787,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-657547200"/>
+        <c:crossAx val="2115635568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1775,7 +1801,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1839,7 +1864,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1887,31 +1911,31 @@
                   <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.74857142857142855</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.72142857142857142</c:v>
+                  <c:v>0.71285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66428571428571426</c:v>
+                  <c:v>0.66714285714285715</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.55857142857142861</c:v>
+                  <c:v>0.56857142857142862</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.47857142857142859</c:v>
+                  <c:v>0.4642857142857143</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.38285714285714284</c:v>
+                  <c:v>0.39428571428571429</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.27285714285714285</c:v>
+                  <c:v>0.27142857142857141</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.2857142857142851E-2</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.7142857142857142E-2</c:v>
+                  <c:v>2.8571428571428571E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1950,34 +1974,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.80333333333333334</c:v>
+                  <c:v>0.79666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.79666666666666663</c:v>
+                  <c:v>0.79333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.76333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.69666666666666666</c:v>
+                  <c:v>0.70666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.53333333333333333</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.35666666666666669</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.27</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.12</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1992,8 +2016,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-652175152"/>
-        <c:axId val="-935140320"/>
+        <c:axId val="2115626864"/>
+        <c:axId val="2115633392"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2044,11 +2068,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-652175152"/>
-        <c:axId val="-935140320"/>
+        <c:axId val="2115626864"/>
+        <c:axId val="2115633392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-652175152"/>
+        <c:axId val="2115626864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2095,14 +2119,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-935140320"/>
+        <c:crossAx val="2115633392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2110,7 +2133,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-935140320"/>
+        <c:axId val="2115633392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2157,14 +2180,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-652175152"/>
+        <c:crossAx val="2115626864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2182,7 +2204,6 @@
         <c:idx val="2"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2580,8 +2601,12 @@
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results" preserveFormatting="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results" preserveFormatting="0" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_1" preserveFormatting="0" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_2" preserveFormatting="0" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2589,19 +2614,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_1" preserveFormatting="0" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results" preserveFormatting="0" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results" preserveFormatting="0" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_3" preserveFormatting="0" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_5" preserveFormatting="0" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results" preserveFormatting="0" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_4" preserveFormatting="0" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_3" preserveFormatting="0" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2893,8 +2926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2910,15 +2943,15 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="37"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -3163,16 +3196,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N17"/>
+  <dimension ref="A2:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="N4" sqref="N4:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
     <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
@@ -3180,25 +3213,28 @@
     <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" customWidth="1"/>
+    <col min="15" max="16" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -3276,8 +3312,8 @@
         <v>1628535</v>
       </c>
       <c r="N4" t="str">
-        <f>"if "&amp;A4&amp;" &gt; "&amp;K4&amp;" then "&amp;A4&amp;" = "&amp;K4&amp;";"</f>
-        <v>if session_length_seconds &gt; 357137.5 then session_length_seconds = 357137.5;</v>
+        <f>"if "&amp;A4&amp;" &gt; "&amp;J4&amp;" then "&amp;A4&amp;" = "&amp;J4&amp;";"</f>
+        <v>if session_length_seconds &gt; 160085.5 then session_length_seconds = 160085.5;</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -3318,8 +3354,8 @@
         <v>828</v>
       </c>
       <c r="N5" t="str">
-        <f t="shared" ref="N5:N11" si="0">"if "&amp;A5&amp;" &gt; "&amp;K5&amp;" then "&amp;A5&amp;" = "&amp;K5&amp;";"</f>
-        <v>if session_count &gt; 465.5 then session_count = 465.5;</v>
+        <f t="shared" ref="N5:N11" si="0">"if "&amp;A5&amp;" &gt; "&amp;J5&amp;" then "&amp;A5&amp;" = "&amp;J5&amp;";"</f>
+        <v>if session_count &gt; 286 then session_count = 286;</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -3361,7 +3397,7 @@
       </c>
       <c r="N6" t="str">
         <f t="shared" si="0"/>
-        <v>if event_count &gt; 6603 then event_count = 6603;</v>
+        <v>if event_count &gt; 3032.5 then event_count = 3032.5;</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -3403,7 +3439,7 @@
       </c>
       <c r="N7" t="str">
         <f t="shared" si="0"/>
-        <v>if closed_session_event_count &gt; 896 then closed_session_event_count = 896;</v>
+        <v>if closed_session_event_count &gt; 484 then closed_session_event_count = 484;</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -3445,7 +3481,7 @@
       </c>
       <c r="N8" t="str">
         <f t="shared" si="0"/>
-        <v>if open_session_event_count &gt; 895 then open_session_event_count = 895;</v>
+        <v>if open_session_event_count &gt; 484 then open_session_event_count = 484;</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -3487,7 +3523,7 @@
       </c>
       <c r="N9" t="str">
         <f t="shared" si="0"/>
-        <v>if quest_completed_event_count &gt; 3090.5 then quest_completed_event_count = 3090.5;</v>
+        <v>if quest_completed_event_count &gt; 957.5 then quest_completed_event_count = 957.5;</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -3529,7 +3565,7 @@
       </c>
       <c r="N10" t="str">
         <f t="shared" si="0"/>
-        <v>if store_purchase_event_count &gt; 71.5 then store_purchase_event_count = 71.5;</v>
+        <v>if store_purchase_event_count &gt; 20 then store_purchase_event_count = 20;</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -3571,14 +3607,14 @@
       </c>
       <c r="N11" t="str">
         <f t="shared" si="0"/>
-        <v>if active_days &gt; 55 then active_days = 55;</v>
+        <v>if active_days &gt; 53 then active_days = 53;</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="40"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -3604,7 +3640,7 @@
         <v>5227</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>47</v>
       </c>
@@ -3612,6 +3648,418 @@
         <f>SUM(B15:B16)</f>
         <v>10000</v>
       </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="J20" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="L20" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="N20" s="50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="52">
+        <v>10000</v>
+      </c>
+      <c r="C21" s="52">
+        <v>0</v>
+      </c>
+      <c r="D21" s="52">
+        <v>35716.75</v>
+      </c>
+      <c r="E21" s="52">
+        <v>75896.320000000007</v>
+      </c>
+      <c r="F21" s="52">
+        <v>0</v>
+      </c>
+      <c r="G21" s="52">
+        <v>3</v>
+      </c>
+      <c r="H21" s="52">
+        <v>72</v>
+      </c>
+      <c r="I21" s="52">
+        <v>1449</v>
+      </c>
+      <c r="J21" s="52">
+        <v>8063.5</v>
+      </c>
+      <c r="K21" s="52">
+        <v>36033</v>
+      </c>
+      <c r="L21" s="52">
+        <v>160085.5</v>
+      </c>
+      <c r="M21" s="52">
+        <v>357137.5</v>
+      </c>
+      <c r="N21" s="52">
+        <v>1628535</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="52">
+        <v>10000</v>
+      </c>
+      <c r="C22" s="52">
+        <v>0</v>
+      </c>
+      <c r="D22" s="52">
+        <v>64.175799999999995</v>
+      </c>
+      <c r="E22" s="52">
+        <v>102.1226547</v>
+      </c>
+      <c r="F22" s="52">
+        <v>1</v>
+      </c>
+      <c r="G22" s="52">
+        <v>1</v>
+      </c>
+      <c r="H22" s="52">
+        <v>1</v>
+      </c>
+      <c r="I22" s="52">
+        <v>3</v>
+      </c>
+      <c r="J22" s="52">
+        <v>17</v>
+      </c>
+      <c r="K22" s="52">
+        <v>79</v>
+      </c>
+      <c r="L22" s="52">
+        <v>286</v>
+      </c>
+      <c r="M22" s="52">
+        <v>465.5</v>
+      </c>
+      <c r="N22" s="52">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="52">
+        <v>10000</v>
+      </c>
+      <c r="C23" s="52">
+        <v>0</v>
+      </c>
+      <c r="D23" s="52">
+        <v>721.42070000000001</v>
+      </c>
+      <c r="E23" s="52">
+        <v>1443.56</v>
+      </c>
+      <c r="F23" s="52">
+        <v>1</v>
+      </c>
+      <c r="G23" s="52">
+        <v>4</v>
+      </c>
+      <c r="H23" s="52">
+        <v>6</v>
+      </c>
+      <c r="I23" s="52">
+        <v>41</v>
+      </c>
+      <c r="J23" s="52">
+        <v>197</v>
+      </c>
+      <c r="K23" s="52">
+        <v>789</v>
+      </c>
+      <c r="L23" s="52">
+        <v>3032.5</v>
+      </c>
+      <c r="M23" s="52">
+        <v>6603</v>
+      </c>
+      <c r="N23" s="52">
+        <v>25869</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="52">
+        <v>10000</v>
+      </c>
+      <c r="C24" s="52">
+        <v>0</v>
+      </c>
+      <c r="D24" s="52">
+        <v>109.08669999999999</v>
+      </c>
+      <c r="E24" s="52">
+        <v>189.6328675</v>
+      </c>
+      <c r="F24" s="52">
+        <v>0</v>
+      </c>
+      <c r="G24" s="52">
+        <v>1</v>
+      </c>
+      <c r="H24" s="52">
+        <v>2</v>
+      </c>
+      <c r="I24" s="52">
+        <v>6</v>
+      </c>
+      <c r="J24" s="52">
+        <v>28</v>
+      </c>
+      <c r="K24" s="52">
+        <v>128</v>
+      </c>
+      <c r="L24" s="52">
+        <v>484</v>
+      </c>
+      <c r="M24" s="52">
+        <v>896</v>
+      </c>
+      <c r="N24" s="52">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="52">
+        <v>10000</v>
+      </c>
+      <c r="C25" s="52">
+        <v>0</v>
+      </c>
+      <c r="D25" s="52">
+        <v>108.4248</v>
+      </c>
+      <c r="E25" s="52">
+        <v>189.11090039999999</v>
+      </c>
+      <c r="F25" s="52">
+        <v>0</v>
+      </c>
+      <c r="G25" s="52">
+        <v>1</v>
+      </c>
+      <c r="H25" s="52">
+        <v>2</v>
+      </c>
+      <c r="I25" s="52">
+        <v>6</v>
+      </c>
+      <c r="J25" s="52">
+        <v>28</v>
+      </c>
+      <c r="K25" s="52">
+        <v>127</v>
+      </c>
+      <c r="L25" s="52">
+        <v>484</v>
+      </c>
+      <c r="M25" s="52">
+        <v>895</v>
+      </c>
+      <c r="N25" s="52">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="52">
+        <v>10000</v>
+      </c>
+      <c r="C26" s="52">
+        <v>0</v>
+      </c>
+      <c r="D26" s="52">
+        <v>202.2516</v>
+      </c>
+      <c r="E26" s="52">
+        <v>737.30736730000001</v>
+      </c>
+      <c r="F26" s="52">
+        <v>0</v>
+      </c>
+      <c r="G26" s="52">
+        <v>0</v>
+      </c>
+      <c r="H26" s="52">
+        <v>0</v>
+      </c>
+      <c r="I26" s="52">
+        <v>3</v>
+      </c>
+      <c r="J26" s="52">
+        <v>20</v>
+      </c>
+      <c r="K26" s="52">
+        <v>103</v>
+      </c>
+      <c r="L26" s="52">
+        <v>957.5</v>
+      </c>
+      <c r="M26" s="52">
+        <v>3090.5</v>
+      </c>
+      <c r="N26" s="52">
+        <v>17538</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="52">
+        <v>10000</v>
+      </c>
+      <c r="C27" s="52">
+        <v>0</v>
+      </c>
+      <c r="D27" s="52">
+        <v>4.6763000000000003</v>
+      </c>
+      <c r="E27" s="52">
+        <v>17.474897899999998</v>
+      </c>
+      <c r="F27" s="52">
+        <v>0</v>
+      </c>
+      <c r="G27" s="52">
+        <v>0</v>
+      </c>
+      <c r="H27" s="52">
+        <v>0</v>
+      </c>
+      <c r="I27" s="52">
+        <v>0</v>
+      </c>
+      <c r="J27" s="52">
+        <v>0</v>
+      </c>
+      <c r="K27" s="52">
+        <v>3</v>
+      </c>
+      <c r="L27" s="52">
+        <v>20</v>
+      </c>
+      <c r="M27" s="52">
+        <v>71.5</v>
+      </c>
+      <c r="N27" s="52">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="52">
+        <v>10000</v>
+      </c>
+      <c r="C28" s="52">
+        <v>0</v>
+      </c>
+      <c r="D28" s="52">
+        <v>15.234299999999999</v>
+      </c>
+      <c r="E28" s="52">
+        <v>16.4244141</v>
+      </c>
+      <c r="F28" s="52">
+        <v>1</v>
+      </c>
+      <c r="G28" s="52">
+        <v>1</v>
+      </c>
+      <c r="H28" s="52">
+        <v>1</v>
+      </c>
+      <c r="I28" s="52">
+        <v>2</v>
+      </c>
+      <c r="J28" s="52">
+        <v>8</v>
+      </c>
+      <c r="K28" s="52">
+        <v>24</v>
+      </c>
+      <c r="L28" s="52">
+        <v>53</v>
+      </c>
+      <c r="M28" s="52">
+        <v>55</v>
+      </c>
+      <c r="N28" s="52">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="49"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3619,6 +4067,7 @@
     <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3641,14 +4090,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3796,32 +4245,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="I1" s="22" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="I1" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="24"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="43"/>
     </row>
     <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="47" t="s">
         <v>67</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -3830,10 +4279,10 @@
       <c r="E2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="47" t="s">
         <v>69</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -3842,27 +4291,27 @@
       <c r="J2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="L2" s="20"/>
-      <c r="M2" s="19" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="N2" s="20"/>
+      <c r="N2" s="45"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="4" t="s">
         <v>55</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4" t="s">
@@ -3924,10 +4373,10 @@
       <c r="B5" s="5">
         <v>1</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="10">
         <v>-2.0000000000000002E-5</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="11">
         <v>3.6339999999999999E-6</v>
       </c>
       <c r="E5" s="5">
@@ -3936,7 +4385,7 @@
       <c r="F5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="10">
         <v>-0.98980000000000001</v>
       </c>
       <c r="I5" s="4">
@@ -3965,7 +4414,7 @@
       <c r="B6" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="10">
         <v>-1.3600000000000001E-3</v>
       </c>
       <c r="D6" s="5">
@@ -3977,7 +4426,7 @@
       <c r="F6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="10">
         <v>-1.0746</v>
       </c>
       <c r="I6" s="4">
@@ -4088,7 +4537,7 @@
       <c r="B9" s="5">
         <v>1</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="10">
         <v>-6.7500000000000004E-2</v>
       </c>
       <c r="D9" s="5">
@@ -4100,7 +4549,7 @@
       <c r="F9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="10">
         <v>-0.61299999999999999</v>
       </c>
       <c r="I9" s="4">
@@ -4143,12 +4592,12 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
       <c r="I11" s="4">
         <v>8</v>
       </c>
@@ -4172,7 +4621,7 @@
       <c r="A12" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="12">
         <v>79.7</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -4259,11 +4708,11 @@
       <c r="D15" s="5">
         <v>0.79700000000000004</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="24"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="43"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I16" s="4" t="s">
@@ -4331,41 +4780,44 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" customWidth="1"/>
-    <col min="9" max="11" width="9" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" customWidth="1"/>
+    <col min="11" max="11" width="4" customWidth="1"/>
+    <col min="12" max="14" width="9" customWidth="1"/>
     <col min="15" max="15" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="J1" s="15" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="J1" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
     </row>
     <row r="2" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -4412,13 +4864,13 @@
       <c r="B3" s="3">
         <v>700</v>
       </c>
-      <c r="C3" s="3">
-        <v>0.73160000000000003</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.74091200000000002</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="C3" s="54">
+        <v>0.73315699999999995</v>
+      </c>
+      <c r="D3" s="54">
+        <v>0.74838000000000005</v>
+      </c>
+      <c r="E3" s="54">
         <v>553</v>
       </c>
       <c r="F3" s="6">
@@ -4431,18 +4883,18 @@
       <c r="K3" s="3">
         <v>300</v>
       </c>
-      <c r="L3" s="3">
-        <v>0.73216599999999998</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0.73841599999999996</v>
-      </c>
-      <c r="N3" s="3">
-        <v>241</v>
+      <c r="L3" s="54">
+        <v>0.733738</v>
+      </c>
+      <c r="M3" s="54">
+        <v>0.744286</v>
+      </c>
+      <c r="N3" s="54">
+        <v>239</v>
       </c>
       <c r="O3" s="6">
         <f>K3-N3</f>
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -4452,18 +4904,18 @@
       <c r="B4" s="3">
         <v>700</v>
       </c>
-      <c r="C4" s="3">
-        <v>0.71698799999999996</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.731595</v>
-      </c>
-      <c r="E4" s="3">
-        <v>524</v>
+      <c r="C4" s="54">
+        <v>0.718171</v>
+      </c>
+      <c r="D4" s="54">
+        <v>0.73315300000000005</v>
+      </c>
+      <c r="E4" s="54">
+        <v>525</v>
       </c>
       <c r="F4" s="6">
         <f t="shared" ref="F4:F12" si="0">B4-E4</f>
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J4" s="3">
         <v>8</v>
@@ -4471,18 +4923,18 @@
       <c r="K4" s="3">
         <v>300</v>
       </c>
-      <c r="L4" s="3">
-        <v>0.71733199999999997</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0.73211300000000001</v>
-      </c>
-      <c r="N4" s="3">
-        <v>239</v>
+      <c r="L4" s="54">
+        <v>0.71843999999999997</v>
+      </c>
+      <c r="M4" s="54">
+        <v>0.73367700000000002</v>
+      </c>
+      <c r="N4" s="54">
+        <v>238</v>
       </c>
       <c r="O4" s="6">
         <f t="shared" ref="O4:O12" si="1">K4-N4</f>
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -4492,18 +4944,18 @@
       <c r="B5" s="3">
         <v>700</v>
       </c>
-      <c r="C5" s="3">
-        <v>0.69313499999999995</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.71695699999999996</v>
-      </c>
-      <c r="E5" s="3">
-        <v>505</v>
+      <c r="C5" s="54">
+        <v>0.69414500000000001</v>
+      </c>
+      <c r="D5" s="54">
+        <v>0.71815700000000005</v>
+      </c>
+      <c r="E5" s="54">
+        <v>499</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" si="0"/>
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="J5" s="3">
         <v>7</v>
@@ -4511,13 +4963,13 @@
       <c r="K5" s="3">
         <v>300</v>
       </c>
-      <c r="L5" s="3">
-        <v>0.69092900000000002</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0.71728999999999998</v>
-      </c>
-      <c r="N5" s="3">
+      <c r="L5" s="54">
+        <v>0.69187500000000002</v>
+      </c>
+      <c r="M5" s="54">
+        <v>0.71835599999999999</v>
+      </c>
+      <c r="N5" s="54">
         <v>229</v>
       </c>
       <c r="O5" s="6">
@@ -4532,18 +4984,18 @@
       <c r="B6" s="3">
         <v>700</v>
       </c>
-      <c r="C6" s="3">
-        <v>0.65163499999999996</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.69309399999999999</v>
-      </c>
-      <c r="E6" s="3">
-        <v>465</v>
+      <c r="C6" s="54">
+        <v>0.65181199999999995</v>
+      </c>
+      <c r="D6" s="54">
+        <v>0.69411800000000001</v>
+      </c>
+      <c r="E6" s="54">
+        <v>467</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" si="0"/>
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J6" s="3">
         <v>6</v>
@@ -4551,18 +5003,18 @@
       <c r="K6" s="3">
         <v>300</v>
       </c>
-      <c r="L6" s="3">
-        <v>0.65378899999999995</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0.690855</v>
-      </c>
-      <c r="N6" s="3">
-        <v>209</v>
+      <c r="L6" s="54">
+        <v>0.65329099999999996</v>
+      </c>
+      <c r="M6" s="54">
+        <v>0.69179599999999997</v>
+      </c>
+      <c r="N6" s="54">
+        <v>212</v>
       </c>
       <c r="O6" s="6">
         <f t="shared" si="1"/>
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -4572,18 +5024,18 @@
       <c r="B7" s="3">
         <v>700</v>
       </c>
-      <c r="C7" s="3">
-        <v>0.58271300000000004</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.65155399999999997</v>
-      </c>
-      <c r="E7" s="3">
-        <v>391</v>
+      <c r="C7" s="54">
+        <v>0.58277400000000001</v>
+      </c>
+      <c r="D7" s="54">
+        <v>0.65171400000000002</v>
+      </c>
+      <c r="E7" s="54">
+        <v>398</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="0"/>
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="J7" s="3">
         <v>5</v>
@@ -4591,18 +5043,18 @@
       <c r="K7" s="3">
         <v>300</v>
       </c>
-      <c r="L7" s="3">
-        <v>0.57874199999999998</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0.65366500000000005</v>
-      </c>
-      <c r="N7" s="3">
-        <v>160</v>
+      <c r="L7" s="54">
+        <v>0.57716900000000004</v>
+      </c>
+      <c r="M7" s="54">
+        <v>0.65327800000000003</v>
+      </c>
+      <c r="N7" s="54">
+        <v>159</v>
       </c>
       <c r="O7" s="6">
         <f t="shared" si="1"/>
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -4612,18 +5064,18 @@
       <c r="B8" s="3">
         <v>700</v>
       </c>
-      <c r="C8" s="3">
-        <v>0.46902100000000002</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.58262499999999995</v>
-      </c>
-      <c r="E8" s="3">
-        <v>335</v>
+      <c r="C8" s="54">
+        <v>0.46685900000000002</v>
+      </c>
+      <c r="D8" s="54">
+        <v>0.582673</v>
+      </c>
+      <c r="E8" s="54">
+        <v>325</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="0"/>
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="J8" s="3">
         <v>4</v>
@@ -4631,13 +5083,13 @@
       <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
-        <v>0.47454499999999999</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0.57773699999999995</v>
-      </c>
-      <c r="N8" s="3">
+      <c r="L8" s="54">
+        <v>0.470503</v>
+      </c>
+      <c r="M8" s="54">
+        <v>0.57708300000000001</v>
+      </c>
+      <c r="N8" s="54">
         <v>141</v>
       </c>
       <c r="O8" s="6">
@@ -4652,18 +5104,18 @@
       <c r="B9" s="3">
         <v>700</v>
       </c>
-      <c r="C9" s="3">
-        <v>0.315189</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.46898600000000001</v>
-      </c>
-      <c r="E9" s="3">
-        <v>268</v>
+      <c r="C9" s="54">
+        <v>0.31247599999999998</v>
+      </c>
+      <c r="D9" s="54">
+        <v>0.46675100000000003</v>
+      </c>
+      <c r="E9" s="54">
+        <v>276</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="0"/>
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="J9" s="3">
         <v>3</v>
@@ -4671,18 +5123,18 @@
       <c r="K9" s="3">
         <v>300</v>
       </c>
-      <c r="L9" s="3">
-        <v>0.32067000000000001</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0.47383900000000001</v>
-      </c>
-      <c r="N9" s="3">
-        <v>107</v>
+      <c r="L9" s="54">
+        <v>0.31868000000000002</v>
+      </c>
+      <c r="M9" s="54">
+        <v>0.46993200000000002</v>
+      </c>
+      <c r="N9" s="54">
+        <v>111</v>
       </c>
       <c r="O9" s="6">
         <f t="shared" si="1"/>
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -4692,18 +5144,18 @@
       <c r="B10" s="3">
         <v>700</v>
       </c>
-      <c r="C10" s="3">
-        <v>0.14435400000000001</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.31515500000000002</v>
-      </c>
-      <c r="E10" s="3">
-        <v>191</v>
+      <c r="C10" s="54">
+        <v>0.14296200000000001</v>
+      </c>
+      <c r="D10" s="54">
+        <v>0.31235000000000002</v>
+      </c>
+      <c r="E10" s="54">
+        <v>190</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="0"/>
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J10" s="3">
         <v>2</v>
@@ -4711,18 +5163,18 @@
       <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
-        <v>0.15757099999999999</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0.32020199999999999</v>
-      </c>
-      <c r="N10" s="3">
-        <v>81</v>
+      <c r="L10" s="54">
+        <v>0.15678800000000001</v>
+      </c>
+      <c r="M10" s="54">
+        <v>0.31667299999999998</v>
+      </c>
+      <c r="N10" s="54">
+        <v>78</v>
       </c>
       <c r="O10" s="6">
         <f t="shared" si="1"/>
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -4732,18 +5184,18 @@
       <c r="B11" s="3">
         <v>700</v>
       </c>
-      <c r="C11" s="3">
-        <v>5.3467000000000001E-2</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.14424999999999999</v>
-      </c>
-      <c r="E11" s="3">
-        <v>58</v>
+      <c r="C11" s="54">
+        <v>5.2481E-2</v>
+      </c>
+      <c r="D11" s="54">
+        <v>0.14296</v>
+      </c>
+      <c r="E11" s="54">
+        <v>56</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="0"/>
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="J11" s="3">
         <v>1</v>
@@ -4751,18 +5203,18 @@
       <c r="K11" s="3">
         <v>300</v>
       </c>
-      <c r="L11" s="3">
-        <v>4.9293999999999998E-2</v>
-      </c>
-      <c r="M11" s="3">
-        <v>0.15737499999999999</v>
-      </c>
-      <c r="N11" s="3">
-        <v>36</v>
+      <c r="L11" s="54">
+        <v>4.9748000000000001E-2</v>
+      </c>
+      <c r="M11" s="54">
+        <v>0.155727</v>
+      </c>
+      <c r="N11" s="54">
+        <v>39</v>
       </c>
       <c r="O11" s="6">
         <f t="shared" si="1"/>
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -4772,18 +5224,18 @@
       <c r="B12" s="3">
         <v>700</v>
       </c>
-      <c r="C12" s="26">
-        <v>5.6700000000000001E-13</v>
-      </c>
-      <c r="D12" s="3">
-        <v>5.3462999999999997E-2</v>
-      </c>
-      <c r="E12" s="3">
-        <v>19</v>
+      <c r="C12" s="54">
+        <v>5.6099999999999998E-4</v>
+      </c>
+      <c r="D12" s="54">
+        <v>5.2458999999999999E-2</v>
+      </c>
+      <c r="E12" s="54">
+        <v>20</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="0"/>
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
@@ -4791,23 +5243,375 @@
       <c r="K12" s="3">
         <v>300</v>
       </c>
-      <c r="L12" s="26">
-        <v>4.8999999999999996E-10</v>
-      </c>
-      <c r="M12" s="3">
-        <v>4.8897000000000003E-2</v>
-      </c>
-      <c r="N12" s="3">
-        <v>21</v>
+      <c r="L12" s="54">
+        <v>9.8499999999999998E-4</v>
+      </c>
+      <c r="M12" s="54">
+        <v>4.9520000000000002E-2</v>
+      </c>
+      <c r="N12" s="54">
+        <v>18</v>
       </c>
       <c r="O12" s="6">
         <f t="shared" si="1"/>
-        <v>279</v>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="K14" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="M14" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="N14" s="53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="54">
+        <v>9</v>
+      </c>
+      <c r="B15" s="54">
+        <v>700</v>
+      </c>
+      <c r="C15" s="54">
+        <v>553</v>
+      </c>
+      <c r="D15" s="54">
+        <v>0.73315699999999995</v>
+      </c>
+      <c r="E15" s="54">
+        <v>0.74838000000000005</v>
+      </c>
+      <c r="J15" s="54">
+        <v>9</v>
+      </c>
+      <c r="K15" s="54">
+        <v>300</v>
+      </c>
+      <c r="L15" s="54">
+        <v>239</v>
+      </c>
+      <c r="M15" s="54">
+        <v>0.733738</v>
+      </c>
+      <c r="N15" s="54">
+        <v>0.744286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="54">
+        <v>8</v>
+      </c>
+      <c r="B16" s="54">
+        <v>700</v>
+      </c>
+      <c r="C16" s="54">
+        <v>525</v>
+      </c>
+      <c r="D16" s="54">
+        <v>0.718171</v>
+      </c>
+      <c r="E16" s="54">
+        <v>0.73315300000000005</v>
+      </c>
+      <c r="J16" s="54">
+        <v>8</v>
+      </c>
+      <c r="K16" s="54">
+        <v>300</v>
+      </c>
+      <c r="L16" s="54">
+        <v>238</v>
+      </c>
+      <c r="M16" s="54">
+        <v>0.71843999999999997</v>
+      </c>
+      <c r="N16" s="54">
+        <v>0.73367700000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="54">
+        <v>7</v>
+      </c>
+      <c r="B17" s="54">
+        <v>700</v>
+      </c>
+      <c r="C17" s="54">
+        <v>499</v>
+      </c>
+      <c r="D17" s="54">
+        <v>0.69414500000000001</v>
+      </c>
+      <c r="E17" s="54">
+        <v>0.71815700000000005</v>
+      </c>
+      <c r="J17" s="54">
+        <v>7</v>
+      </c>
+      <c r="K17" s="54">
+        <v>300</v>
+      </c>
+      <c r="L17" s="54">
+        <v>229</v>
+      </c>
+      <c r="M17" s="54">
+        <v>0.69187500000000002</v>
+      </c>
+      <c r="N17" s="54">
+        <v>0.71835599999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="54">
+        <v>6</v>
+      </c>
+      <c r="B18" s="54">
+        <v>700</v>
+      </c>
+      <c r="C18" s="54">
+        <v>467</v>
+      </c>
+      <c r="D18" s="54">
+        <v>0.65181199999999995</v>
+      </c>
+      <c r="E18" s="54">
+        <v>0.69411800000000001</v>
+      </c>
+      <c r="J18" s="54">
+        <v>6</v>
+      </c>
+      <c r="K18" s="54">
+        <v>300</v>
+      </c>
+      <c r="L18" s="54">
+        <v>212</v>
+      </c>
+      <c r="M18" s="54">
+        <v>0.65329099999999996</v>
+      </c>
+      <c r="N18" s="54">
+        <v>0.69179599999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="54">
+        <v>5</v>
+      </c>
+      <c r="B19" s="54">
+        <v>700</v>
+      </c>
+      <c r="C19" s="54">
+        <v>398</v>
+      </c>
+      <c r="D19" s="54">
+        <v>0.58277400000000001</v>
+      </c>
+      <c r="E19" s="54">
+        <v>0.65171400000000002</v>
+      </c>
+      <c r="J19" s="54">
+        <v>5</v>
+      </c>
+      <c r="K19" s="54">
+        <v>300</v>
+      </c>
+      <c r="L19" s="54">
+        <v>159</v>
+      </c>
+      <c r="M19" s="54">
+        <v>0.57716900000000004</v>
+      </c>
+      <c r="N19" s="54">
+        <v>0.65327800000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="54">
+        <v>4</v>
+      </c>
+      <c r="B20" s="54">
+        <v>700</v>
+      </c>
+      <c r="C20" s="54">
+        <v>325</v>
+      </c>
+      <c r="D20" s="54">
+        <v>0.46685900000000002</v>
+      </c>
+      <c r="E20" s="54">
+        <v>0.582673</v>
+      </c>
+      <c r="J20" s="54">
+        <v>4</v>
+      </c>
+      <c r="K20" s="54">
+        <v>300</v>
+      </c>
+      <c r="L20" s="54">
+        <v>141</v>
+      </c>
+      <c r="M20" s="54">
+        <v>0.470503</v>
+      </c>
+      <c r="N20" s="54">
+        <v>0.57708300000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="54">
+        <v>3</v>
+      </c>
+      <c r="B21" s="54">
+        <v>700</v>
+      </c>
+      <c r="C21" s="54">
+        <v>276</v>
+      </c>
+      <c r="D21" s="54">
+        <v>0.31247599999999998</v>
+      </c>
+      <c r="E21" s="54">
+        <v>0.46675100000000003</v>
+      </c>
+      <c r="J21" s="54">
+        <v>3</v>
+      </c>
+      <c r="K21" s="54">
+        <v>300</v>
+      </c>
+      <c r="L21" s="54">
+        <v>111</v>
+      </c>
+      <c r="M21" s="54">
+        <v>0.31868000000000002</v>
+      </c>
+      <c r="N21" s="54">
+        <v>0.46993200000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="54">
+        <v>2</v>
+      </c>
+      <c r="B22" s="54">
+        <v>700</v>
+      </c>
+      <c r="C22" s="54">
+        <v>190</v>
+      </c>
+      <c r="D22" s="54">
+        <v>0.14296200000000001</v>
+      </c>
+      <c r="E22" s="54">
+        <v>0.31235000000000002</v>
+      </c>
+      <c r="J22" s="54">
+        <v>2</v>
+      </c>
+      <c r="K22" s="54">
+        <v>300</v>
+      </c>
+      <c r="L22" s="54">
+        <v>78</v>
+      </c>
+      <c r="M22" s="54">
+        <v>0.15678800000000001</v>
+      </c>
+      <c r="N22" s="54">
+        <v>0.31667299999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="54">
+        <v>1</v>
+      </c>
+      <c r="B23" s="54">
+        <v>700</v>
+      </c>
+      <c r="C23" s="54">
+        <v>56</v>
+      </c>
+      <c r="D23" s="54">
+        <v>5.2481E-2</v>
+      </c>
+      <c r="E23" s="54">
+        <v>0.14296</v>
+      </c>
+      <c r="J23" s="54">
+        <v>1</v>
+      </c>
+      <c r="K23" s="54">
+        <v>300</v>
+      </c>
+      <c r="L23" s="54">
+        <v>39</v>
+      </c>
+      <c r="M23" s="54">
+        <v>4.9748000000000001E-2</v>
+      </c>
+      <c r="N23" s="54">
+        <v>0.155727</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="54">
+        <v>0</v>
+      </c>
+      <c r="B24" s="54">
+        <v>700</v>
+      </c>
+      <c r="C24" s="54">
+        <v>20</v>
+      </c>
+      <c r="D24" s="54">
+        <v>5.6099999999999998E-4</v>
+      </c>
+      <c r="E24" s="54">
+        <v>5.2458999999999999E-2</v>
+      </c>
+      <c r="J24" s="54">
+        <v>0</v>
+      </c>
+      <c r="K24" s="54">
+        <v>300</v>
+      </c>
+      <c r="L24" s="54">
+        <v>18</v>
+      </c>
+      <c r="M24" s="54">
+        <v>9.8499999999999998E-4</v>
+      </c>
+      <c r="N24" s="54">
+        <v>4.9520000000000002E-2</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="J3:N12">
-    <sortCondition descending="1" ref="J2"/>
+  <sortState ref="J15:N24">
+    <sortCondition descending="1" ref="J14"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
@@ -4824,8 +5628,8 @@
   </sheetPr>
   <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView showGridLines="0" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4844,85 +5648,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:21" ht="36" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="J2" s="43" t="s">
+      <c r="J2" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="K2" s="43" t="s">
+      <c r="K2" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="L2" s="43" t="s">
+      <c r="L2" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="R2" s="44" t="s">
+      <c r="R2" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="S2" s="44" t="s">
+      <c r="S2" s="30" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43">
+      <c r="A3" s="29">
         <v>0</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29">
         <v>0</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
       <c r="Q3" s="6">
         <v>0</v>
       </c>
@@ -4934,54 +5738,54 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="40">
+      <c r="A4" s="26">
         <v>1</v>
       </c>
-      <c r="B4" s="39">
-        <v>0.73160000000000003</v>
-      </c>
-      <c r="C4" s="39">
-        <v>0.74091200000000002</v>
-      </c>
-      <c r="D4" s="38">
+      <c r="B4" s="25">
+        <v>0.73315699999999995</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0.74838000000000005</v>
+      </c>
+      <c r="D4" s="24">
         <v>553</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="24">
         <v>147</v>
       </c>
-      <c r="F4" s="37">
-        <f>SUM(D4:E4)</f>
+      <c r="F4" s="23">
+        <f t="shared" ref="F4:F13" si="0">SUM(D4:E4)</f>
         <v>700</v>
       </c>
-      <c r="G4" s="36">
-        <f>D4/F4</f>
+      <c r="G4" s="22">
+        <f t="shared" ref="G4:G14" si="1">D4/F4</f>
         <v>0.79</v>
       </c>
-      <c r="H4" s="36">
-        <f>D4/$D$14</f>
+      <c r="H4" s="22">
+        <f t="shared" ref="H4:H13" si="2">D4/$D$14</f>
         <v>0.16711997582351162</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="22">
         <f>H4</f>
         <v>0.16711997582351162</v>
       </c>
-      <c r="J4" s="36">
-        <f>E4/$E$14</f>
+      <c r="J4" s="22">
+        <f t="shared" ref="J4:J13" si="3">E4/$E$14</f>
         <v>3.9826605256028179E-2</v>
       </c>
-      <c r="K4" s="36">
+      <c r="K4" s="22">
         <f>J4</f>
         <v>3.9826605256028179E-2</v>
       </c>
-      <c r="L4" s="36">
-        <f>ABS(I4-K4)</f>
+      <c r="L4" s="22">
+        <f t="shared" ref="L4:L13" si="4">ABS(I4-K4)</f>
         <v>0.12729337056748344</v>
       </c>
-      <c r="Q4" s="35">
+      <c r="Q4" s="21">
         <v>0.1</v>
       </c>
-      <c r="R4" s="41">
-        <f>I4/Q4</f>
+      <c r="R4" s="27">
+        <f t="shared" ref="R4:R13" si="5">I4/Q4</f>
         <v>1.6711997582351161</v>
       </c>
       <c r="S4" s="6">
@@ -4992,55 +5796,55 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="40">
+      <c r="A5" s="26">
         <v>2</v>
       </c>
-      <c r="B5" s="39">
-        <v>0.71698799999999996</v>
-      </c>
-      <c r="C5" s="39">
-        <v>0.731595</v>
-      </c>
-      <c r="D5" s="38">
-        <v>524</v>
-      </c>
-      <c r="E5" s="38">
-        <v>176</v>
-      </c>
-      <c r="F5" s="48">
-        <f>SUM(D5:E5)</f>
+      <c r="B5" s="25">
+        <v>0.718171</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0.73315300000000005</v>
+      </c>
+      <c r="D5" s="24">
+        <v>525</v>
+      </c>
+      <c r="E5" s="24">
+        <v>175</v>
+      </c>
+      <c r="F5" s="33">
+        <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="G5" s="49">
-        <f>D5/F5</f>
-        <v>0.74857142857142855</v>
-      </c>
-      <c r="H5" s="49">
-        <f>D5/$D$14</f>
-        <v>0.1583559987911756</v>
-      </c>
-      <c r="I5" s="49">
-        <f>I4+H5</f>
-        <v>0.32547597461468725</v>
-      </c>
-      <c r="J5" s="49">
-        <f>E5/$E$14</f>
-        <v>4.7683554592251425E-2</v>
-      </c>
-      <c r="K5" s="49">
-        <f>K4+J5</f>
-        <v>8.7510159848279603E-2</v>
-      </c>
-      <c r="L5" s="49">
-        <f>ABS(I5-K5)</f>
-        <v>0.23796581476640766</v>
-      </c>
-      <c r="Q5" s="35">
+      <c r="G5" s="34">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="H5" s="34">
+        <f t="shared" si="2"/>
+        <v>0.1586582048957389</v>
+      </c>
+      <c r="I5" s="34">
+        <f t="shared" ref="I5:I13" si="6">I4+H5</f>
+        <v>0.32577818071925052</v>
+      </c>
+      <c r="J5" s="34">
+        <f t="shared" si="3"/>
+        <v>4.7412625304795446E-2</v>
+      </c>
+      <c r="K5" s="34">
+        <f t="shared" ref="K5:K13" si="7">K4+J5</f>
+        <v>8.7239230560823625E-2</v>
+      </c>
+      <c r="L5" s="34">
+        <f t="shared" si="4"/>
+        <v>0.23853895015842691</v>
+      </c>
+      <c r="Q5" s="21">
         <v>0.2</v>
       </c>
-      <c r="R5" s="34">
-        <f>I5/Q5</f>
-        <v>1.6273798730734361</v>
+      <c r="R5" s="20">
+        <f t="shared" si="5"/>
+        <v>1.6288909035962524</v>
       </c>
       <c r="S5" s="6">
         <v>1</v>
@@ -5050,55 +5854,55 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="40">
+      <c r="A6" s="26">
         <v>3</v>
       </c>
-      <c r="B6" s="39">
-        <v>0.69313499999999995</v>
-      </c>
-      <c r="C6" s="39">
-        <v>0.71695699999999996</v>
-      </c>
-      <c r="D6" s="38">
-        <v>505</v>
-      </c>
-      <c r="E6" s="38">
-        <v>195</v>
-      </c>
-      <c r="F6" s="37">
-        <f>SUM(D6:E6)</f>
+      <c r="B6" s="25">
+        <v>0.69414500000000001</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0.71815700000000005</v>
+      </c>
+      <c r="D6" s="24">
+        <v>499</v>
+      </c>
+      <c r="E6" s="24">
+        <v>201</v>
+      </c>
+      <c r="F6" s="23">
+        <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="G6" s="36">
-        <f>D6/F6</f>
-        <v>0.72142857142857142</v>
-      </c>
-      <c r="H6" s="36">
-        <f>D6/$D$14</f>
-        <v>0.15261408280447264</v>
-      </c>
-      <c r="I6" s="36">
-        <f>I5+H6</f>
-        <v>0.47809005741915989</v>
-      </c>
-      <c r="J6" s="36">
-        <f>E6/$E$14</f>
-        <v>5.2831211053914931E-2</v>
-      </c>
-      <c r="K6" s="36">
-        <f>K5+J6</f>
-        <v>0.14034137090219453</v>
-      </c>
-      <c r="L6" s="36">
-        <f>ABS(I6-K6)</f>
-        <v>0.33774868651696532</v>
-      </c>
-      <c r="Q6" s="35">
+      <c r="G6" s="22">
+        <f t="shared" si="1"/>
+        <v>0.71285714285714286</v>
+      </c>
+      <c r="H6" s="22">
+        <f t="shared" si="2"/>
+        <v>0.15080084617709277</v>
+      </c>
+      <c r="I6" s="22">
+        <f t="shared" si="6"/>
+        <v>0.47657902689634329</v>
+      </c>
+      <c r="J6" s="22">
+        <f t="shared" si="3"/>
+        <v>5.4456786778650769E-2</v>
+      </c>
+      <c r="K6" s="22">
+        <f t="shared" si="7"/>
+        <v>0.1416960173394744</v>
+      </c>
+      <c r="L6" s="22">
+        <f t="shared" si="4"/>
+        <v>0.33488300955686889</v>
+      </c>
+      <c r="Q6" s="21">
         <v>0.3</v>
       </c>
-      <c r="R6" s="34">
-        <f>I6/Q6</f>
-        <v>1.5936335247305331</v>
+      <c r="R6" s="20">
+        <f t="shared" si="5"/>
+        <v>1.5885967563211443</v>
       </c>
       <c r="S6" s="6">
         <v>1</v>
@@ -5108,55 +5912,55 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="40">
+      <c r="A7" s="26">
         <v>4</v>
       </c>
-      <c r="B7" s="39">
-        <v>0.65163499999999996</v>
-      </c>
-      <c r="C7" s="39">
-        <v>0.69309399999999999</v>
-      </c>
-      <c r="D7" s="38">
-        <v>465</v>
-      </c>
-      <c r="E7" s="38">
-        <v>235</v>
-      </c>
-      <c r="F7" s="37">
-        <f>SUM(D7:E7)</f>
+      <c r="B7" s="25">
+        <v>0.65181199999999995</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0.69411800000000001</v>
+      </c>
+      <c r="D7" s="24">
+        <v>467</v>
+      </c>
+      <c r="E7" s="24">
+        <v>233</v>
+      </c>
+      <c r="F7" s="23">
+        <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="G7" s="36">
-        <f>D7/F7</f>
-        <v>0.66428571428571426</v>
-      </c>
-      <c r="H7" s="36">
-        <f>D7/$D$14</f>
-        <v>0.14052583862194015</v>
-      </c>
-      <c r="I7" s="36">
-        <f>I6+H7</f>
-        <v>0.61861589604110001</v>
-      </c>
-      <c r="J7" s="36">
-        <f>E7/$E$14</f>
-        <v>6.3668382552153888E-2</v>
-      </c>
-      <c r="K7" s="36">
-        <f>K6+J7</f>
-        <v>0.20400975345434841</v>
-      </c>
-      <c r="L7" s="36">
-        <f>ABS(I7-K7)</f>
-        <v>0.4146061425867516</v>
-      </c>
-      <c r="Q7" s="35">
+      <c r="G7" s="22">
+        <f t="shared" si="1"/>
+        <v>0.66714285714285715</v>
+      </c>
+      <c r="H7" s="22">
+        <f t="shared" si="2"/>
+        <v>0.14113025083106678</v>
+      </c>
+      <c r="I7" s="22">
+        <f t="shared" si="6"/>
+        <v>0.61770927772741002</v>
+      </c>
+      <c r="J7" s="22">
+        <f t="shared" si="3"/>
+        <v>6.3126523977241944E-2</v>
+      </c>
+      <c r="K7" s="22">
+        <f t="shared" si="7"/>
+        <v>0.20482254131671634</v>
+      </c>
+      <c r="L7" s="22">
+        <f t="shared" si="4"/>
+        <v>0.41288673641069368</v>
+      </c>
+      <c r="Q7" s="21">
         <v>0.4</v>
       </c>
-      <c r="R7" s="34">
-        <f>I7/Q7</f>
-        <v>1.5465397401027499</v>
+      <c r="R7" s="20">
+        <f t="shared" si="5"/>
+        <v>1.5442731943185251</v>
       </c>
       <c r="S7" s="6">
         <v>1</v>
@@ -5166,55 +5970,55 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="40">
+      <c r="A8" s="26">
         <v>5</v>
       </c>
-      <c r="B8" s="39">
-        <v>0.58271300000000004</v>
-      </c>
-      <c r="C8" s="39">
-        <v>0.65155399999999997</v>
-      </c>
-      <c r="D8" s="38">
-        <v>391</v>
-      </c>
-      <c r="E8" s="38">
-        <v>309</v>
-      </c>
-      <c r="F8" s="37">
-        <f>SUM(D8:E8)</f>
+      <c r="B8" s="25">
+        <v>0.58277400000000001</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0.65171400000000002</v>
+      </c>
+      <c r="D8" s="24">
+        <v>398</v>
+      </c>
+      <c r="E8" s="24">
+        <v>302</v>
+      </c>
+      <c r="F8" s="23">
+        <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="G8" s="36">
-        <f>D8/F8</f>
-        <v>0.55857142857142861</v>
-      </c>
-      <c r="H8" s="36">
-        <f>D8/$D$14</f>
-        <v>0.11816258688425506</v>
-      </c>
-      <c r="I8" s="36">
-        <f>I7+H8</f>
-        <v>0.73677848292535508</v>
-      </c>
-      <c r="J8" s="36">
-        <f>E8/$E$14</f>
-        <v>8.371714982389597E-2</v>
-      </c>
-      <c r="K8" s="36">
-        <f>K7+J8</f>
-        <v>0.28772690327824435</v>
-      </c>
-      <c r="L8" s="36">
-        <f>ABS(I8-K8)</f>
-        <v>0.44905157964711073</v>
-      </c>
-      <c r="Q8" s="35">
+      <c r="G8" s="22">
+        <f t="shared" si="1"/>
+        <v>0.56857142857142862</v>
+      </c>
+      <c r="H8" s="22">
+        <f t="shared" si="2"/>
+        <v>0.12027802961619825</v>
+      </c>
+      <c r="I8" s="22">
+        <f t="shared" si="6"/>
+        <v>0.73798730734360829</v>
+      </c>
+      <c r="J8" s="22">
+        <f t="shared" si="3"/>
+        <v>8.1820644811704146E-2</v>
+      </c>
+      <c r="K8" s="22">
+        <f t="shared" si="7"/>
+        <v>0.28664318612842049</v>
+      </c>
+      <c r="L8" s="22">
+        <f t="shared" si="4"/>
+        <v>0.4513441212151878</v>
+      </c>
+      <c r="Q8" s="21">
         <v>0.5</v>
       </c>
-      <c r="R8" s="34">
-        <f>I8/Q8</f>
-        <v>1.4735569658507102</v>
+      <c r="R8" s="20">
+        <f t="shared" si="5"/>
+        <v>1.4759746146872166</v>
       </c>
       <c r="S8" s="6">
         <v>1</v>
@@ -5224,391 +6028,391 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="40">
+      <c r="A9" s="26">
         <v>6</v>
       </c>
-      <c r="B9" s="39">
-        <v>0.46902100000000002</v>
-      </c>
-      <c r="C9" s="39">
-        <v>0.58262499999999995</v>
-      </c>
-      <c r="D9" s="38">
-        <v>335</v>
-      </c>
-      <c r="E9" s="38">
-        <v>365</v>
-      </c>
-      <c r="F9" s="37">
-        <f>SUM(D9:E9)</f>
+      <c r="B9" s="25">
+        <v>0.46685900000000002</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0.582673</v>
+      </c>
+      <c r="D9" s="24">
+        <v>325</v>
+      </c>
+      <c r="E9" s="24">
+        <v>375</v>
+      </c>
+      <c r="F9" s="23">
+        <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="G9" s="36">
-        <f>D9/F9</f>
-        <v>0.47857142857142859</v>
-      </c>
-      <c r="H9" s="36">
-        <f>D9/$D$14</f>
-        <v>0.10123904502870958</v>
-      </c>
-      <c r="I9" s="36">
-        <f>I8+H9</f>
-        <v>0.8380175279540647</v>
-      </c>
-      <c r="J9" s="36">
-        <f>E9/$E$14</f>
-        <v>9.8889189921430504E-2</v>
-      </c>
-      <c r="K9" s="36">
-        <f>K8+J9</f>
-        <v>0.38661609319967483</v>
-      </c>
-      <c r="L9" s="36">
-        <f>ABS(I9-K9)</f>
-        <v>0.45140143475438987</v>
-      </c>
-      <c r="Q9" s="35">
+      <c r="G9" s="22">
+        <f t="shared" si="1"/>
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="H9" s="22">
+        <f t="shared" si="2"/>
+        <v>9.8216983983076461E-2</v>
+      </c>
+      <c r="I9" s="22">
+        <f t="shared" si="6"/>
+        <v>0.83620429132668472</v>
+      </c>
+      <c r="J9" s="22">
+        <f t="shared" si="3"/>
+        <v>0.10159848279599025</v>
+      </c>
+      <c r="K9" s="22">
+        <f t="shared" si="7"/>
+        <v>0.38824166892441075</v>
+      </c>
+      <c r="L9" s="22">
+        <f t="shared" si="4"/>
+        <v>0.44796262240227397</v>
+      </c>
+      <c r="Q9" s="21">
         <v>0.6</v>
       </c>
-      <c r="R9" s="34">
-        <f>I9/Q9</f>
-        <v>1.3966958799234412</v>
+      <c r="R9" s="20">
+        <f t="shared" si="5"/>
+        <v>1.3936738188778079</v>
       </c>
       <c r="S9" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="40">
+      <c r="A10" s="26">
         <v>7</v>
       </c>
-      <c r="B10" s="39">
-        <v>0.315189</v>
-      </c>
-      <c r="C10" s="39">
-        <v>0.46898600000000001</v>
-      </c>
-      <c r="D10" s="38">
-        <v>268</v>
-      </c>
-      <c r="E10" s="38">
-        <v>432</v>
-      </c>
-      <c r="F10" s="37">
-        <f>SUM(D10:E10)</f>
+      <c r="B10" s="25">
+        <v>0.31247599999999998</v>
+      </c>
+      <c r="C10" s="25">
+        <v>0.46675100000000003</v>
+      </c>
+      <c r="D10" s="24">
+        <v>276</v>
+      </c>
+      <c r="E10" s="24">
+        <v>424</v>
+      </c>
+      <c r="F10" s="23">
+        <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="G10" s="36">
-        <f>D10/F10</f>
-        <v>0.38285714285714284</v>
-      </c>
-      <c r="H10" s="36">
-        <f>D10/$D$14</f>
-        <v>8.0991236022967664E-2</v>
-      </c>
-      <c r="I10" s="36">
-        <f>I9+H10</f>
-        <v>0.91900876397703235</v>
-      </c>
-      <c r="J10" s="36">
-        <f>E10/$E$14</f>
-        <v>0.11704145218098076</v>
-      </c>
-      <c r="K10" s="36">
-        <f>K9+J10</f>
-        <v>0.50365754538065555</v>
-      </c>
-      <c r="L10" s="36">
-        <f>ABS(I10-K10)</f>
-        <v>0.4153512185963768</v>
-      </c>
-      <c r="Q10" s="35">
+      <c r="G10" s="22">
+        <f t="shared" si="1"/>
+        <v>0.39428571428571429</v>
+      </c>
+      <c r="H10" s="22">
+        <f t="shared" si="2"/>
+        <v>8.3408884859474161E-2</v>
+      </c>
+      <c r="I10" s="22">
+        <f t="shared" si="6"/>
+        <v>0.9196131761861589</v>
+      </c>
+      <c r="J10" s="22">
+        <f t="shared" si="3"/>
+        <v>0.11487401788133297</v>
+      </c>
+      <c r="K10" s="22">
+        <f t="shared" si="7"/>
+        <v>0.5031156868057437</v>
+      </c>
+      <c r="L10" s="22">
+        <f t="shared" si="4"/>
+        <v>0.4164974893804152</v>
+      </c>
+      <c r="Q10" s="21">
         <v>0.7</v>
       </c>
-      <c r="R10" s="34">
-        <f>I10/Q10</f>
-        <v>1.3128696628243319</v>
+      <c r="R10" s="20">
+        <f t="shared" si="5"/>
+        <v>1.31373310883737</v>
       </c>
       <c r="S10" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="40">
+      <c r="A11" s="26">
         <v>8</v>
       </c>
-      <c r="B11" s="39">
-        <v>0.14435400000000001</v>
-      </c>
-      <c r="C11" s="39">
-        <v>0.31515500000000002</v>
-      </c>
-      <c r="D11" s="38">
-        <v>191</v>
-      </c>
-      <c r="E11" s="38">
-        <v>509</v>
-      </c>
-      <c r="F11" s="37">
-        <f>SUM(D11:E11)</f>
+      <c r="B11" s="25">
+        <v>0.14296200000000001</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0.31235000000000002</v>
+      </c>
+      <c r="D11" s="24">
+        <v>190</v>
+      </c>
+      <c r="E11" s="24">
+        <v>510</v>
+      </c>
+      <c r="F11" s="23">
+        <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="G11" s="36">
-        <f>D11/F11</f>
-        <v>0.27285714285714285</v>
-      </c>
-      <c r="H11" s="36">
-        <f>D11/$D$14</f>
-        <v>5.7721365971592629E-2</v>
-      </c>
-      <c r="I11" s="36">
-        <f>I10+H11</f>
-        <v>0.97673012994862496</v>
-      </c>
-      <c r="J11" s="36">
-        <f>E11/$E$14</f>
-        <v>0.13790300731509075</v>
-      </c>
-      <c r="K11" s="36">
-        <f>K10+J11</f>
-        <v>0.6415605526957463</v>
-      </c>
-      <c r="L11" s="36">
-        <f>ABS(I11-K11)</f>
-        <v>0.33516957725287866</v>
-      </c>
-      <c r="Q11" s="35">
+      <c r="G11" s="22">
+        <f t="shared" si="1"/>
+        <v>0.27142857142857141</v>
+      </c>
+      <c r="H11" s="22">
+        <f t="shared" si="2"/>
+        <v>5.7419159867029314E-2</v>
+      </c>
+      <c r="I11" s="22">
+        <f t="shared" si="6"/>
+        <v>0.97703233605318818</v>
+      </c>
+      <c r="J11" s="22">
+        <f t="shared" si="3"/>
+        <v>0.13817393660254673</v>
+      </c>
+      <c r="K11" s="22">
+        <f t="shared" si="7"/>
+        <v>0.64128962340829043</v>
+      </c>
+      <c r="L11" s="22">
+        <f t="shared" si="4"/>
+        <v>0.33574271264489775</v>
+      </c>
+      <c r="Q11" s="21">
         <v>0.8</v>
       </c>
-      <c r="R11" s="34">
-        <f>I11/Q11</f>
-        <v>1.2209126624357811</v>
+      <c r="R11" s="20">
+        <f t="shared" si="5"/>
+        <v>1.2212904200664851</v>
       </c>
       <c r="S11" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="40">
+      <c r="A12" s="26">
         <v>9</v>
       </c>
-      <c r="B12" s="39">
-        <v>5.3467000000000001E-2</v>
-      </c>
-      <c r="C12" s="39">
-        <v>0.14424999999999999</v>
-      </c>
-      <c r="D12" s="38">
-        <v>58</v>
-      </c>
-      <c r="E12" s="38">
-        <v>642</v>
-      </c>
-      <c r="F12" s="37">
-        <f>SUM(D12:E12)</f>
+      <c r="B12" s="25">
+        <v>5.2481E-2</v>
+      </c>
+      <c r="C12" s="25">
+        <v>0.14296</v>
+      </c>
+      <c r="D12" s="24">
+        <v>56</v>
+      </c>
+      <c r="E12" s="24">
+        <v>644</v>
+      </c>
+      <c r="F12" s="23">
+        <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="G12" s="36">
-        <f>D12/F12</f>
-        <v>8.2857142857142851E-2</v>
-      </c>
-      <c r="H12" s="36">
-        <f>D12/$D$14</f>
-        <v>1.7527954064672106E-2</v>
-      </c>
-      <c r="I12" s="36">
-        <f>I11+H12</f>
-        <v>0.99425808401329707</v>
-      </c>
-      <c r="J12" s="36">
-        <f>E12/$E$14</f>
-        <v>0.17393660254673529</v>
-      </c>
-      <c r="K12" s="36">
-        <f>K11+J12</f>
-        <v>0.81549715524248156</v>
-      </c>
-      <c r="L12" s="36">
-        <f>ABS(I12-K12)</f>
-        <v>0.17876092877081551</v>
-      </c>
-      <c r="Q12" s="35">
+      <c r="G12" s="22">
+        <f t="shared" si="1"/>
+        <v>0.08</v>
+      </c>
+      <c r="H12" s="22">
+        <f t="shared" si="2"/>
+        <v>1.6923541855545482E-2</v>
+      </c>
+      <c r="I12" s="22">
+        <f t="shared" si="6"/>
+        <v>0.99395587790873363</v>
+      </c>
+      <c r="J12" s="22">
+        <f t="shared" si="3"/>
+        <v>0.17447846112164725</v>
+      </c>
+      <c r="K12" s="22">
+        <f t="shared" si="7"/>
+        <v>0.81576808452993765</v>
+      </c>
+      <c r="L12" s="22">
+        <f t="shared" si="4"/>
+        <v>0.17818779337879598</v>
+      </c>
+      <c r="Q12" s="21">
         <v>0.9</v>
       </c>
-      <c r="R12" s="34">
-        <f>I12/Q12</f>
-        <v>1.104731204459219</v>
+      <c r="R12" s="20">
+        <f t="shared" si="5"/>
+        <v>1.1043954198985928</v>
       </c>
       <c r="S12" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="40">
+      <c r="A13" s="26">
         <v>10</v>
       </c>
-      <c r="B13" s="39">
-        <v>5.6700000000000001E-13</v>
-      </c>
-      <c r="C13" s="39">
-        <v>5.3462999999999997E-2</v>
-      </c>
-      <c r="D13" s="38">
-        <v>19</v>
-      </c>
-      <c r="E13" s="38">
-        <v>681</v>
-      </c>
-      <c r="F13" s="37">
-        <f>SUM(D13:E13)</f>
+      <c r="B13" s="25">
+        <v>5.6099999999999998E-4</v>
+      </c>
+      <c r="C13" s="25">
+        <v>5.2458999999999999E-2</v>
+      </c>
+      <c r="D13" s="24">
+        <v>20</v>
+      </c>
+      <c r="E13" s="24">
+        <v>680</v>
+      </c>
+      <c r="F13" s="23">
+        <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="G13" s="36">
-        <f>D13/F13</f>
-        <v>2.7142857142857142E-2</v>
-      </c>
-      <c r="H13" s="36">
-        <f>D13/$D$14</f>
-        <v>5.7419159867029314E-3</v>
-      </c>
-      <c r="I13" s="36">
-        <f>I12+H13</f>
+      <c r="G13" s="22">
+        <f t="shared" si="1"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="H13" s="22">
+        <f t="shared" si="2"/>
+        <v>6.0441220912662436E-3</v>
+      </c>
+      <c r="I13" s="22">
+        <f t="shared" si="6"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="J13" s="22">
+        <f t="shared" si="3"/>
+        <v>0.18423191547006232</v>
+      </c>
+      <c r="K13" s="22">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="J13" s="36">
-        <f>E13/$E$14</f>
-        <v>0.1845028447575183</v>
-      </c>
-      <c r="K13" s="36">
-        <f>K12+J13</f>
+      <c r="L13" s="22">
+        <f t="shared" si="4"/>
+        <v>1.1102230246251565E-16</v>
+      </c>
+      <c r="Q13" s="21">
+        <v>1</v>
+      </c>
+      <c r="R13" s="20">
+        <f t="shared" si="5"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="L13" s="36">
-        <f>ABS(I13-K13)</f>
-        <v>1.1102230246251565E-16</v>
-      </c>
-      <c r="Q13" s="35">
+      <c r="S13" s="19">
         <v>1</v>
       </c>
-      <c r="R13" s="34">
-        <f>I13/Q13</f>
-        <v>1</v>
-      </c>
-      <c r="S13" s="33">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="31">
+      <c r="A14" s="16"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="17">
         <f>SUM(D4:D13)</f>
         <v>3309</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="17">
         <f>SUM(E4:E13)</f>
         <v>3691</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="17">
         <f>SUM(F4:F13)</f>
         <v>7000</v>
       </c>
-      <c r="G14" s="47">
-        <f>D14/F14</f>
+      <c r="G14" s="32">
+        <f t="shared" si="1"/>
         <v>0.4727142857142857</v>
       </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="28" t="s">
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="L14" s="27">
+      <c r="L14" s="13">
         <f>MAX(L4:L13)</f>
-        <v>0.45140143475438987</v>
+        <v>0.4513441212151878</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
     </row>
     <row r="17" spans="1:19" ht="36" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="43" t="s">
+      <c r="G17" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="H17" s="43" t="s">
+      <c r="H17" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="I17" s="43" t="s">
+      <c r="I17" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="J17" s="43" t="s">
+      <c r="J17" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="K17" s="43" t="s">
+      <c r="K17" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="L17" s="43" t="s">
+      <c r="L17" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="Q17" s="44" t="s">
+      <c r="Q17" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="R17" s="44" t="s">
+      <c r="R17" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="S17" s="44" t="s">
+      <c r="S17" s="30" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43">
+      <c r="A18" s="29">
         <v>0</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43">
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29">
         <v>0</v>
       </c>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
       <c r="Q18" s="6">
         <v>0</v>
       </c>
@@ -5618,223 +6422,223 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="40">
+      <c r="A19" s="26">
         <v>1</v>
       </c>
-      <c r="B19" s="39">
-        <v>0.73216599999999998</v>
-      </c>
-      <c r="C19" s="39">
-        <v>0.73841599999999996</v>
-      </c>
-      <c r="D19" s="38">
-        <v>241</v>
-      </c>
-      <c r="E19" s="38">
-        <v>59</v>
-      </c>
-      <c r="F19" s="37">
-        <f>SUM(D19:E19)</f>
+      <c r="B19" s="25">
+        <v>0.733738</v>
+      </c>
+      <c r="C19" s="25">
+        <v>0.744286</v>
+      </c>
+      <c r="D19" s="24">
+        <v>239</v>
+      </c>
+      <c r="E19" s="24">
+        <v>61</v>
+      </c>
+      <c r="F19" s="23">
+        <f t="shared" ref="F19:F28" si="8">SUM(D19:E19)</f>
         <v>300</v>
       </c>
-      <c r="G19" s="36">
-        <f>D19/F19</f>
-        <v>0.80333333333333334</v>
-      </c>
-      <c r="H19" s="36">
-        <f>D19/$D$29</f>
-        <v>0.1646174863387978</v>
-      </c>
-      <c r="I19" s="36">
+      <c r="G19" s="22">
+        <f t="shared" ref="G19:G28" si="9">D19/F19</f>
+        <v>0.79666666666666663</v>
+      </c>
+      <c r="H19" s="22">
+        <f t="shared" ref="H19:H28" si="10">D19/$D$29</f>
+        <v>0.16325136612021857</v>
+      </c>
+      <c r="I19" s="22">
         <f>H19</f>
-        <v>0.1646174863387978</v>
-      </c>
-      <c r="J19" s="36">
-        <f>E19/$E$29</f>
-        <v>3.8411458333333336E-2</v>
-      </c>
-      <c r="K19" s="36">
+        <v>0.16325136612021857</v>
+      </c>
+      <c r="J19" s="22">
+        <f t="shared" ref="J19:J28" si="11">E19/$E$29</f>
+        <v>3.9713541666666664E-2</v>
+      </c>
+      <c r="K19" s="22">
         <f>J19</f>
-        <v>3.8411458333333336E-2</v>
-      </c>
-      <c r="L19" s="36">
-        <f>ABS(I19-K19)</f>
-        <v>0.12620602800546446</v>
-      </c>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35">
+        <v>3.9713541666666664E-2</v>
+      </c>
+      <c r="L19" s="22">
+        <f t="shared" ref="L19:L28" si="12">ABS(I19-K19)</f>
+        <v>0.12353782445355191</v>
+      </c>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21">
         <v>0.1</v>
       </c>
-      <c r="R19" s="41">
-        <f>I19/Q19</f>
-        <v>1.646174863387978</v>
+      <c r="R19" s="27">
+        <f t="shared" ref="R19:R28" si="13">I19/Q19</f>
+        <v>1.6325136612021856</v>
       </c>
       <c r="S19" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="40">
+      <c r="A20" s="26">
         <v>2</v>
       </c>
-      <c r="B20" s="39">
-        <v>0.71733199999999997</v>
-      </c>
-      <c r="C20" s="39">
-        <v>0.73211300000000001</v>
-      </c>
-      <c r="D20" s="38">
-        <v>239</v>
-      </c>
-      <c r="E20" s="38">
-        <v>61</v>
-      </c>
-      <c r="F20" s="48">
-        <f>SUM(D20:E20)</f>
+      <c r="B20" s="25">
+        <v>0.71843999999999997</v>
+      </c>
+      <c r="C20" s="25">
+        <v>0.73367700000000002</v>
+      </c>
+      <c r="D20" s="24">
+        <v>238</v>
+      </c>
+      <c r="E20" s="24">
+        <v>62</v>
+      </c>
+      <c r="F20" s="33">
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
-      <c r="G20" s="49">
-        <f>D20/F20</f>
-        <v>0.79666666666666663</v>
-      </c>
-      <c r="H20" s="49">
-        <f>D20/$D$29</f>
-        <v>0.16325136612021857</v>
-      </c>
-      <c r="I20" s="49">
-        <f>I19+H20</f>
-        <v>0.32786885245901637</v>
-      </c>
-      <c r="J20" s="49">
-        <f>E20/$E$29</f>
-        <v>3.9713541666666664E-2</v>
-      </c>
-      <c r="K20" s="49">
-        <f>K19+J20</f>
-        <v>7.8125E-2</v>
-      </c>
-      <c r="L20" s="49">
-        <f>ABS(I20-K20)</f>
-        <v>0.24974385245901637</v>
-      </c>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35">
+      <c r="G20" s="34">
+        <f t="shared" si="9"/>
+        <v>0.79333333333333333</v>
+      </c>
+      <c r="H20" s="34">
+        <f t="shared" si="10"/>
+        <v>0.16256830601092895</v>
+      </c>
+      <c r="I20" s="34">
+        <f t="shared" ref="I20:I28" si="14">I19+H20</f>
+        <v>0.32581967213114749</v>
+      </c>
+      <c r="J20" s="34">
+        <f t="shared" si="11"/>
+        <v>4.0364583333333336E-2</v>
+      </c>
+      <c r="K20" s="34">
+        <f t="shared" ref="K20:K28" si="15">K19+J20</f>
+        <v>8.0078125E-2</v>
+      </c>
+      <c r="L20" s="34">
+        <f t="shared" si="12"/>
+        <v>0.24574154713114749</v>
+      </c>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21">
         <v>0.2</v>
       </c>
-      <c r="R20" s="34">
-        <f>I20/Q20</f>
-        <v>1.6393442622950818</v>
+      <c r="R20" s="20">
+        <f t="shared" si="13"/>
+        <v>1.6290983606557374</v>
       </c>
       <c r="S20" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="40">
+      <c r="A21" s="26">
         <v>3</v>
       </c>
-      <c r="B21" s="39">
-        <v>0.69092900000000002</v>
-      </c>
-      <c r="C21" s="39">
-        <v>0.71728999999999998</v>
-      </c>
-      <c r="D21" s="38">
+      <c r="B21" s="25">
+        <v>0.69187500000000002</v>
+      </c>
+      <c r="C21" s="25">
+        <v>0.71835599999999999</v>
+      </c>
+      <c r="D21" s="24">
         <v>229</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="24">
         <v>71</v>
       </c>
-      <c r="F21" s="37">
-        <f>SUM(D21:E21)</f>
+      <c r="F21" s="23">
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
-      <c r="G21" s="36">
-        <f>D21/F21</f>
+      <c r="G21" s="22">
+        <f t="shared" si="9"/>
         <v>0.76333333333333331</v>
       </c>
-      <c r="H21" s="36">
-        <f>D21/$D$29</f>
+      <c r="H21" s="22">
+        <f t="shared" si="10"/>
         <v>0.15642076502732241</v>
       </c>
-      <c r="I21" s="36">
-        <f>I20+H21</f>
-        <v>0.48428961748633881</v>
-      </c>
-      <c r="J21" s="36">
-        <f>E21/$E$29</f>
+      <c r="I21" s="22">
+        <f t="shared" si="14"/>
+        <v>0.48224043715846987</v>
+      </c>
+      <c r="J21" s="22">
+        <f t="shared" si="11"/>
         <v>4.6223958333333336E-2</v>
       </c>
-      <c r="K21" s="36">
-        <f>K20+J21</f>
-        <v>0.12434895833333334</v>
-      </c>
-      <c r="L21" s="36">
-        <f>ABS(I21-K21)</f>
-        <v>0.35994065915300544</v>
-      </c>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35">
+      <c r="K21" s="22">
+        <f t="shared" si="15"/>
+        <v>0.12630208333333334</v>
+      </c>
+      <c r="L21" s="22">
+        <f t="shared" si="12"/>
+        <v>0.3559383538251365</v>
+      </c>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21">
         <v>0.3</v>
       </c>
-      <c r="R21" s="34">
-        <f>I21/Q21</f>
-        <v>1.6142987249544627</v>
+      <c r="R21" s="20">
+        <f t="shared" si="13"/>
+        <v>1.6074681238615662</v>
       </c>
       <c r="S21" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="40">
+      <c r="A22" s="26">
         <v>4</v>
       </c>
-      <c r="B22" s="39">
-        <v>0.65378899999999995</v>
-      </c>
-      <c r="C22" s="39">
-        <v>0.690855</v>
-      </c>
-      <c r="D22" s="38">
-        <v>209</v>
-      </c>
-      <c r="E22" s="38">
-        <v>91</v>
-      </c>
-      <c r="F22" s="37">
-        <f>SUM(D22:E22)</f>
+      <c r="B22" s="25">
+        <v>0.65329099999999996</v>
+      </c>
+      <c r="C22" s="25">
+        <v>0.69179599999999997</v>
+      </c>
+      <c r="D22" s="24">
+        <v>212</v>
+      </c>
+      <c r="E22" s="24">
+        <v>88</v>
+      </c>
+      <c r="F22" s="23">
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
-      <c r="G22" s="36">
-        <f>D22/F22</f>
-        <v>0.69666666666666666</v>
-      </c>
-      <c r="H22" s="36">
-        <f>D22/$D$29</f>
-        <v>0.14275956284153005</v>
-      </c>
-      <c r="I22" s="36">
-        <f>I21+H22</f>
+      <c r="G22" s="22">
+        <f t="shared" si="9"/>
+        <v>0.70666666666666667</v>
+      </c>
+      <c r="H22" s="22">
+        <f t="shared" si="10"/>
+        <v>0.1448087431693989</v>
+      </c>
+      <c r="I22" s="22">
+        <f t="shared" si="14"/>
         <v>0.62704918032786883</v>
       </c>
-      <c r="J22" s="36">
-        <f>E22/$E$29</f>
-        <v>5.9244791666666664E-2</v>
-      </c>
-      <c r="K22" s="36">
-        <f>K21+J22</f>
+      <c r="J22" s="22">
+        <f t="shared" si="11"/>
+        <v>5.7291666666666664E-2</v>
+      </c>
+      <c r="K22" s="22">
+        <f t="shared" si="15"/>
         <v>0.18359375</v>
       </c>
-      <c r="L22" s="36">
-        <f>ABS(I22-K22)</f>
+      <c r="L22" s="22">
+        <f t="shared" si="12"/>
         <v>0.44345543032786883</v>
       </c>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35">
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21">
         <v>0.4</v>
       </c>
-      <c r="R22" s="34">
-        <f>I22/Q22</f>
+      <c r="R22" s="20">
+        <f t="shared" si="13"/>
         <v>1.567622950819672</v>
       </c>
       <c r="S22" s="6">
@@ -5842,223 +6646,223 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="40">
+      <c r="A23" s="26">
         <v>5</v>
       </c>
-      <c r="B23" s="39">
-        <v>0.57874199999999998</v>
-      </c>
-      <c r="C23" s="39">
-        <v>0.65366500000000005</v>
-      </c>
-      <c r="D23" s="38">
-        <v>160</v>
-      </c>
-      <c r="E23" s="38">
-        <v>140</v>
-      </c>
-      <c r="F23" s="37">
-        <f>SUM(D23:E23)</f>
+      <c r="B23" s="25">
+        <v>0.57716900000000004</v>
+      </c>
+      <c r="C23" s="25">
+        <v>0.65327800000000003</v>
+      </c>
+      <c r="D23" s="24">
+        <v>159</v>
+      </c>
+      <c r="E23" s="24">
+        <v>141</v>
+      </c>
+      <c r="F23" s="23">
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
-      <c r="G23" s="36">
-        <f>D23/F23</f>
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="H23" s="36">
-        <f>D23/$D$29</f>
-        <v>0.10928961748633879</v>
-      </c>
-      <c r="I23" s="36">
-        <f>I22+H23</f>
-        <v>0.73633879781420764</v>
-      </c>
-      <c r="J23" s="36">
-        <f>E23/$E$29</f>
-        <v>9.1145833333333329E-2</v>
-      </c>
-      <c r="K23" s="36">
-        <f>K22+J23</f>
-        <v>0.27473958333333331</v>
-      </c>
-      <c r="L23" s="36">
-        <f>ABS(I23-K23)</f>
-        <v>0.46159921448087432</v>
-      </c>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35">
+      <c r="G23" s="22">
+        <f t="shared" si="9"/>
+        <v>0.53</v>
+      </c>
+      <c r="H23" s="22">
+        <f t="shared" si="10"/>
+        <v>0.10860655737704918</v>
+      </c>
+      <c r="I23" s="22">
+        <f t="shared" si="14"/>
+        <v>0.73565573770491799</v>
+      </c>
+      <c r="J23" s="22">
+        <f t="shared" si="11"/>
+        <v>9.1796875E-2</v>
+      </c>
+      <c r="K23" s="22">
+        <f t="shared" si="15"/>
+        <v>0.275390625</v>
+      </c>
+      <c r="L23" s="22">
+        <f t="shared" si="12"/>
+        <v>0.46026511270491799</v>
+      </c>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21">
         <v>0.5</v>
       </c>
-      <c r="R23" s="34">
-        <f>I23/Q23</f>
-        <v>1.4726775956284153</v>
+      <c r="R23" s="20">
+        <f t="shared" si="13"/>
+        <v>1.471311475409836</v>
       </c>
       <c r="S23" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="40">
+      <c r="A24" s="26">
         <v>6</v>
       </c>
-      <c r="B24" s="39">
-        <v>0.47454499999999999</v>
-      </c>
-      <c r="C24" s="39">
-        <v>0.57773699999999995</v>
-      </c>
-      <c r="D24" s="38">
+      <c r="B24" s="25">
+        <v>0.470503</v>
+      </c>
+      <c r="C24" s="25">
+        <v>0.57708300000000001</v>
+      </c>
+      <c r="D24" s="24">
         <v>141</v>
       </c>
-      <c r="E24" s="38">
+      <c r="E24" s="24">
         <v>159</v>
       </c>
-      <c r="F24" s="37">
-        <f>SUM(D24:E24)</f>
+      <c r="F24" s="23">
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
-      <c r="G24" s="36">
-        <f>D24/F24</f>
+      <c r="G24" s="22">
+        <f t="shared" si="9"/>
         <v>0.47</v>
       </c>
-      <c r="H24" s="36">
-        <f>D24/$D$29</f>
+      <c r="H24" s="22">
+        <f t="shared" si="10"/>
         <v>9.6311475409836061E-2</v>
       </c>
-      <c r="I24" s="36">
-        <f>I23+H24</f>
-        <v>0.83265027322404372</v>
-      </c>
-      <c r="J24" s="36">
-        <f>E24/$E$29</f>
+      <c r="I24" s="22">
+        <f t="shared" si="14"/>
+        <v>0.83196721311475408</v>
+      </c>
+      <c r="J24" s="22">
+        <f t="shared" si="11"/>
         <v>0.103515625</v>
       </c>
-      <c r="K24" s="36">
-        <f>K23+J24</f>
-        <v>0.37825520833333331</v>
-      </c>
-      <c r="L24" s="36">
-        <f>ABS(I24-K24)</f>
-        <v>0.45439506489071041</v>
-      </c>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35">
+      <c r="K24" s="22">
+        <f t="shared" si="15"/>
+        <v>0.37890625</v>
+      </c>
+      <c r="L24" s="22">
+        <f t="shared" si="12"/>
+        <v>0.45306096311475408</v>
+      </c>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21">
         <v>0.6</v>
       </c>
-      <c r="R24" s="34">
-        <f>I24/Q24</f>
-        <v>1.3877504553734064</v>
+      <c r="R24" s="20">
+        <f t="shared" si="13"/>
+        <v>1.3866120218579234</v>
       </c>
       <c r="S24" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="40">
+      <c r="A25" s="26">
         <v>7</v>
       </c>
-      <c r="B25" s="39">
-        <v>0.32067000000000001</v>
-      </c>
-      <c r="C25" s="39">
-        <v>0.47383900000000001</v>
-      </c>
-      <c r="D25" s="38">
-        <v>107</v>
-      </c>
-      <c r="E25" s="38">
-        <v>193</v>
-      </c>
-      <c r="F25" s="37">
-        <f>SUM(D25:E25)</f>
+      <c r="B25" s="25">
+        <v>0.31868000000000002</v>
+      </c>
+      <c r="C25" s="25">
+        <v>0.46993200000000002</v>
+      </c>
+      <c r="D25" s="24">
+        <v>111</v>
+      </c>
+      <c r="E25" s="24">
+        <v>189</v>
+      </c>
+      <c r="F25" s="23">
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
-      <c r="G25" s="36">
-        <f>D25/F25</f>
-        <v>0.35666666666666669</v>
-      </c>
-      <c r="H25" s="36">
-        <f>D25/$D$29</f>
-        <v>7.3087431693989069E-2</v>
-      </c>
-      <c r="I25" s="36">
-        <f>I24+H25</f>
-        <v>0.90573770491803285</v>
-      </c>
-      <c r="J25" s="36">
-        <f>E25/$E$29</f>
-        <v>0.12565104166666666</v>
-      </c>
-      <c r="K25" s="36">
-        <f>K24+J25</f>
-        <v>0.50390625</v>
-      </c>
-      <c r="L25" s="36">
-        <f>ABS(I25-K25)</f>
-        <v>0.40183145491803285</v>
-      </c>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35">
+      <c r="G25" s="22">
+        <f t="shared" si="9"/>
+        <v>0.37</v>
+      </c>
+      <c r="H25" s="22">
+        <f t="shared" si="10"/>
+        <v>7.5819672131147542E-2</v>
+      </c>
+      <c r="I25" s="22">
+        <f t="shared" si="14"/>
+        <v>0.90778688524590168</v>
+      </c>
+      <c r="J25" s="22">
+        <f t="shared" si="11"/>
+        <v>0.123046875</v>
+      </c>
+      <c r="K25" s="22">
+        <f t="shared" si="15"/>
+        <v>0.501953125</v>
+      </c>
+      <c r="L25" s="22">
+        <f t="shared" si="12"/>
+        <v>0.40583376024590168</v>
+      </c>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21">
         <v>0.7</v>
       </c>
-      <c r="R25" s="34">
-        <f>I25/Q25</f>
-        <v>1.2939110070257613</v>
+      <c r="R25" s="20">
+        <f t="shared" si="13"/>
+        <v>1.2968384074941453</v>
       </c>
       <c r="S25" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="40">
+      <c r="A26" s="26">
         <v>8</v>
       </c>
-      <c r="B26" s="39">
-        <v>0.15757099999999999</v>
-      </c>
-      <c r="C26" s="39">
-        <v>0.32020199999999999</v>
-      </c>
-      <c r="D26" s="38">
-        <v>81</v>
-      </c>
-      <c r="E26" s="38">
-        <v>219</v>
-      </c>
-      <c r="F26" s="37">
-        <f>SUM(D26:E26)</f>
+      <c r="B26" s="25">
+        <v>0.15678800000000001</v>
+      </c>
+      <c r="C26" s="25">
+        <v>0.31667299999999998</v>
+      </c>
+      <c r="D26" s="24">
+        <v>78</v>
+      </c>
+      <c r="E26" s="24">
+        <v>222</v>
+      </c>
+      <c r="F26" s="23">
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
-      <c r="G26" s="36">
-        <f>D26/F26</f>
-        <v>0.27</v>
-      </c>
-      <c r="H26" s="36">
-        <f>D26/$D$29</f>
-        <v>5.5327868852459015E-2</v>
-      </c>
-      <c r="I26" s="36">
-        <f>I25+H26</f>
+      <c r="G26" s="22">
+        <f t="shared" si="9"/>
+        <v>0.26</v>
+      </c>
+      <c r="H26" s="22">
+        <f t="shared" si="10"/>
+        <v>5.3278688524590161E-2</v>
+      </c>
+      <c r="I26" s="22">
+        <f t="shared" si="14"/>
         <v>0.96106557377049184</v>
       </c>
-      <c r="J26" s="36">
-        <f>E26/$E$29</f>
-        <v>0.142578125</v>
-      </c>
-      <c r="K26" s="36">
-        <f>K25+J26</f>
+      <c r="J26" s="22">
+        <f t="shared" si="11"/>
+        <v>0.14453125</v>
+      </c>
+      <c r="K26" s="22">
+        <f t="shared" si="15"/>
         <v>0.646484375</v>
       </c>
-      <c r="L26" s="36">
-        <f>ABS(I26-K26)</f>
+      <c r="L26" s="22">
+        <f t="shared" si="12"/>
         <v>0.31458119877049184</v>
       </c>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35">
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21">
         <v>0.8</v>
       </c>
-      <c r="R26" s="34">
-        <f>I26/Q26</f>
+      <c r="R26" s="20">
+        <f t="shared" si="13"/>
         <v>1.2013319672131146</v>
       </c>
       <c r="S26" s="6">
@@ -6066,143 +6870,143 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="40">
+      <c r="A27" s="26">
         <v>9</v>
       </c>
-      <c r="B27" s="39">
-        <v>4.9293999999999998E-2</v>
-      </c>
-      <c r="C27" s="39">
-        <v>0.15737499999999999</v>
-      </c>
-      <c r="D27" s="38">
-        <v>36</v>
-      </c>
-      <c r="E27" s="38">
-        <v>264</v>
-      </c>
-      <c r="F27" s="37">
-        <f>SUM(D27:E27)</f>
+      <c r="B27" s="25">
+        <v>4.9748000000000001E-2</v>
+      </c>
+      <c r="C27" s="25">
+        <v>0.155727</v>
+      </c>
+      <c r="D27" s="24">
+        <v>39</v>
+      </c>
+      <c r="E27" s="24">
+        <v>261</v>
+      </c>
+      <c r="F27" s="23">
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
-      <c r="G27" s="36">
-        <f>D27/F27</f>
-        <v>0.12</v>
-      </c>
-      <c r="H27" s="36">
-        <f>D27/$D$29</f>
-        <v>2.4590163934426229E-2</v>
-      </c>
-      <c r="I27" s="36">
-        <f>I26+H27</f>
-        <v>0.9856557377049181</v>
-      </c>
-      <c r="J27" s="36">
-        <f>E27/$E$29</f>
-        <v>0.171875</v>
-      </c>
-      <c r="K27" s="36">
-        <f>K26+J27</f>
-        <v>0.818359375</v>
-      </c>
-      <c r="L27" s="36">
-        <f>ABS(I27-K27)</f>
-        <v>0.1672963627049181</v>
-      </c>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35">
+      <c r="G27" s="22">
+        <f t="shared" si="9"/>
+        <v>0.13</v>
+      </c>
+      <c r="H27" s="22">
+        <f t="shared" si="10"/>
+        <v>2.663934426229508E-2</v>
+      </c>
+      <c r="I27" s="22">
+        <f t="shared" si="14"/>
+        <v>0.98770491803278693</v>
+      </c>
+      <c r="J27" s="22">
+        <f t="shared" si="11"/>
+        <v>0.169921875</v>
+      </c>
+      <c r="K27" s="22">
+        <f t="shared" si="15"/>
+        <v>0.81640625</v>
+      </c>
+      <c r="L27" s="22">
+        <f t="shared" si="12"/>
+        <v>0.17129866803278693</v>
+      </c>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21">
         <v>0.9</v>
       </c>
-      <c r="R27" s="34">
-        <f>I27/Q27</f>
-        <v>1.0951730418943535</v>
+      <c r="R27" s="20">
+        <f t="shared" si="13"/>
+        <v>1.0974499089253187</v>
       </c>
       <c r="S27" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="40">
+      <c r="A28" s="26">
         <v>10</v>
       </c>
-      <c r="B28" s="39">
-        <v>4.8999999999999996E-10</v>
-      </c>
-      <c r="C28" s="39">
-        <v>4.8897000000000003E-2</v>
-      </c>
-      <c r="D28" s="38">
-        <v>21</v>
-      </c>
-      <c r="E28" s="38">
-        <v>279</v>
-      </c>
-      <c r="F28" s="37">
-        <f>SUM(D28:E28)</f>
+      <c r="B28" s="25">
+        <v>9.8499999999999998E-4</v>
+      </c>
+      <c r="C28" s="25">
+        <v>4.9520000000000002E-2</v>
+      </c>
+      <c r="D28" s="24">
+        <v>18</v>
+      </c>
+      <c r="E28" s="24">
+        <v>282</v>
+      </c>
+      <c r="F28" s="23">
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
-      <c r="G28" s="36">
-        <f>D28/F28</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H28" s="36">
-        <f>D28/$D$29</f>
-        <v>1.4344262295081968E-2</v>
-      </c>
-      <c r="I28" s="36">
-        <f>I27+H28</f>
+      <c r="G28" s="22">
+        <f t="shared" si="9"/>
+        <v>0.06</v>
+      </c>
+      <c r="H28" s="22">
+        <f t="shared" si="10"/>
+        <v>1.2295081967213115E-2</v>
+      </c>
+      <c r="I28" s="22">
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="J28" s="36">
-        <f>E28/$E$29</f>
-        <v>0.181640625</v>
-      </c>
-      <c r="K28" s="36">
-        <f>K27+J28</f>
+      <c r="J28" s="22">
+        <f t="shared" si="11"/>
+        <v>0.18359375</v>
+      </c>
+      <c r="K28" s="22">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L28" s="36">
-        <f>ABS(I28-K28)</f>
+      <c r="L28" s="22">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35">
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21">
         <v>1</v>
       </c>
-      <c r="R28" s="34">
-        <f>I28/Q28</f>
+      <c r="R28" s="20">
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="S28" s="33">
+      <c r="S28" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="31">
+      <c r="A29" s="16"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="17">
         <f>SUM(D19:D28)</f>
         <v>1464</v>
       </c>
-      <c r="E29" s="31">
+      <c r="E29" s="17">
         <f>SUM(E19:E28)</f>
         <v>1536</v>
       </c>
-      <c r="F29" s="31">
+      <c r="F29" s="17">
         <f>SUM(F19:F28)</f>
         <v>3000</v>
       </c>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="28" t="s">
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="L29" s="27">
+      <c r="L29" s="13">
         <f>MAX(L19:L28)</f>
-        <v>0.46159921448087432</v>
+        <v>0.46026511270491799</v>
       </c>
     </row>
   </sheetData>

--- a/myfolders/RegressionCaseStuty2/E-CommerceAnalysis.xlsx
+++ b/myfolders/RegressionCaseStuty2/E-CommerceAnalysis.xlsx
@@ -12,23 +12,25 @@
     <sheet name="Relationship" sheetId="4" r:id="rId3"/>
     <sheet name="TrainingDataset" sheetId="5" r:id="rId4"/>
     <sheet name="DecileAnalysis" sheetId="8" r:id="rId5"/>
-    <sheet name="Gains Table - Dev &amp; Val Sample" sheetId="11" r:id="rId6"/>
+    <sheet name="Model Output" sheetId="12" r:id="rId6"/>
+    <sheet name="Gains Table - Dev &amp; Val Sample" sheetId="11" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="main_3flocale_en_US_zone_GMT_25252B05_25253A30" localSheetId="4">DecileAnalysis!#REF!</definedName>
     <definedName name="results" localSheetId="0">'Business Problem'!$A$8:$F$18</definedName>
-    <definedName name="results" localSheetId="4">DecileAnalysis!$A$2:$D$12</definedName>
+    <definedName name="results" localSheetId="4">DecileAnalysis!$A$17:$D$27</definedName>
     <definedName name="results" localSheetId="1">'Descriptive Statistics'!$A$3:$L$11</definedName>
     <definedName name="results" localSheetId="2">Relationship!$A$2:$F$8</definedName>
     <definedName name="results" localSheetId="3">TrainingDataset!$A$1:$G$36</definedName>
     <definedName name="results_1" localSheetId="0">'Business Problem'!#REF!</definedName>
     <definedName name="results_1" localSheetId="1">'Descriptive Statistics'!$A$14:$B$16</definedName>
+    <definedName name="results_1" localSheetId="2">Relationship!$A$10:$I$19</definedName>
     <definedName name="results_2" localSheetId="4">DecileAnalysis!#REF!</definedName>
     <definedName name="results_2" localSheetId="1">'Descriptive Statistics'!$A$20:$N$29</definedName>
-    <definedName name="results_3" localSheetId="4">DecileAnalysis!$J$2:$M$12</definedName>
-    <definedName name="results_4" localSheetId="4">DecileAnalysis!$A$14:$E$24</definedName>
-    <definedName name="results_5" localSheetId="4">DecileAnalysis!$J$14:$N$24</definedName>
+    <definedName name="results_3" localSheetId="4">DecileAnalysis!$H$17:$K$27</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -71,20 +73,21 @@
   <connection id="7" name="Connection6" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://192.168.150.129/SASStudio/36/sasexec/submissions/de78b571-72d4-4a79-b66d-47c1e148c324/results" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="8" name="Connection7" type="4" refreshedVersion="5" background="1" saveData="1">
-    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://192.168.150.129/SASStudio/36/sasexec/submissions/b828ff61-ea06-4311-beba-4ab30fbe3c2f/results" htmlTables="1" htmlFormat="all"/>
+  <connection id="8" name="Connection81" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://192.168.150.129/SASStudio/36/sasexec/submissions/6de62201-dfa4-4a95-9771-9373ec43caba/results" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="9" name="Connection8" type="4" refreshedVersion="5" background="1" saveData="1">
-    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://192.168.150.129/SASStudio/36/sasexec/submissions/f9396cb5-5696-4082-b77c-710f05f7715a/results" htmlTables="1" htmlFormat="all"/>
-  </connection>
-  <connection id="10" name="Connection81" type="4" refreshedVersion="5" background="1" saveData="1">
-    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://192.168.150.129/SASStudio/36/sasexec/submissions/6de62201-dfa4-4a95-9771-9373ec43caba/results" htmlTables="1" htmlFormat="all"/>
+  <connection id="9" name="Connection9" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://192.168.150.129/SASStudio/36/sasexec/submissions/c97273cf-c6e3-4832-b42b-b44dabef4f0c/results" htmlTables="1" htmlFormat="all">
+      <tables count="1">
+        <x v="3"/>
+      </tables>
+    </webPr>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="143">
   <si>
     <t>Variables in Creation Order</t>
   </si>
@@ -468,13 +471,66 @@
   </si>
   <si>
     <t>75th Pctl</t>
+  </si>
+  <si>
+    <t>churnStatus</t>
+  </si>
+  <si>
+    <t>Pearson Correlation Coefficients, N = 10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% Balance </t>
+  </si>
+  <si>
+    <t>Sum of Actual Sales</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Distribution of Estimated and Actual Balance</t>
+  </si>
+  <si>
+    <t>Average - Actual Sales Count</t>
+  </si>
+  <si>
+    <t>Average - Predicted Sales Count</t>
+  </si>
+  <si>
+    <t>Deciles</t>
+  </si>
+  <si>
+    <t>Actual Sales Count</t>
+  </si>
+  <si>
+    <t>Predicted Sales Count</t>
+  </si>
+  <si>
+    <t>Actual Sum</t>
+  </si>
+  <si>
+    <t>Predicted Sum</t>
+  </si>
+  <si>
+    <t>Decile Analysis for Store Puchase Count Prediction</t>
+  </si>
+  <si>
+    <t>Decile Analysis for the Churn Status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,6 +589,35 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -578,7 +663,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -658,12 +743,206 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -755,6 +1034,70 @@
     <xf numFmtId="10" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -794,31 +1137,31 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="Comma 2" xfId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent 2" xfId="3"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -862,6 +1205,414 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11021534309723385"/>
+          <c:y val="0.12820577026126934"/>
+          <c:w val="0.8010773717798948"/>
+          <c:h val="0.63077238968544513"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Model Output'!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average - Actual Sales Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="FF00FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF00FF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF00FF"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Model Output'!$D$5:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12.486666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3066666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2666666666999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2633333333000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.53666666669999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18333333330000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11333333330000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.6666666999999997E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Model Output'!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average - Predicted Sales Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Model Output'!$E$5:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12.714864285999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6612503431999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2561089253000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4879035964999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3346437070999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64394111909999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2417540346</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7757128899999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.121482653</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.20225683799999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-158650480"/>
+        <c:axId val="-158643408"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-158650480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-158643408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-158643408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="66000"/>
+                      <a:satMod val="160000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="44500"/>
+                      <a:satMod val="160000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="23500"/>
+                      <a:satMod val="160000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:prstDash val="dashDot"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-158650480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="808080"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.4946215247121569E-2"/>
+          <c:y val="0.85128649934383205"/>
+          <c:w val="0.94892712781611677"/>
+          <c:h val="0.11282111220472446"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="735" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="3175">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial"/>
+          <a:ea typeface="Arial"/>
+          <a:cs typeface="Arial"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1196,11 +1947,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2115638832"/>
-        <c:axId val="2115646992"/>
+        <c:axId val="-158645584"/>
+        <c:axId val="-158648848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2115638832"/>
+        <c:axId val="-158645584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1247,7 +1998,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115646992"/>
+        <c:crossAx val="-158648848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1255,7 +2006,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115646992"/>
+        <c:axId val="-158648848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1315,7 +2066,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115638832"/>
+        <c:crossAx val="-158645584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1351,7 +2102,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1672,11 +2423,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2115635568"/>
-        <c:axId val="2115645904"/>
+        <c:axId val="-158658096"/>
+        <c:axId val="-158659728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2115635568"/>
+        <c:axId val="-158658096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1723,7 +2474,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115645904"/>
+        <c:crossAx val="-158659728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1731,7 +2482,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115645904"/>
+        <c:axId val="-158659728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1787,7 +2538,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2115635568"/>
+        <c:crossAx val="-158658096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1820,7 +2571,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2016,8 +2767,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2115626864"/>
-        <c:axId val="2115633392"/>
+        <c:axId val="-158648304"/>
+        <c:axId val="-158647216"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2068,11 +2819,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2115626864"/>
-        <c:axId val="2115633392"/>
+        <c:axId val="-158648304"/>
+        <c:axId val="-158647216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2115626864"/>
+        <c:axId val="-158648304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2125,7 +2876,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115633392"/>
+        <c:crossAx val="-158647216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2133,7 +2884,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115633392"/>
+        <c:axId val="-158647216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2186,7 +2937,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115626864"/>
+        <c:crossAx val="-158648304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2311,6 +3062,43 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>110490</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2601,10 +3389,6 @@
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results" preserveFormatting="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results" preserveFormatting="0" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_2" preserveFormatting="0" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
@@ -2622,19 +3406,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_1" preserveFormatting="0" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results" preserveFormatting="0" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_5" preserveFormatting="0" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_4" preserveFormatting="0" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_3" preserveFormatting="0" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_3" preserveFormatting="0" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results" preserveFormatting="0" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2926,7 +3710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B10" sqref="B10:B18"/>
     </sheetView>
   </sheetViews>
@@ -2943,15 +3727,15 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="37"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="67"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -3199,7 +3983,7 @@
   <dimension ref="A2:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:N10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3221,20 +4005,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -3354,7 +4138,7 @@
         <v>828</v>
       </c>
       <c r="N5" t="str">
-        <f t="shared" ref="N5:N11" si="0">"if "&amp;A5&amp;" &gt; "&amp;J5&amp;" then "&amp;A5&amp;" = "&amp;J5&amp;";"</f>
+        <f t="shared" ref="N5:N9" si="0">"if "&amp;A5&amp;" &gt; "&amp;J5&amp;" then "&amp;A5&amp;" = "&amp;J5&amp;";"</f>
         <v>if session_count &gt; 286 then session_count = 286;</v>
       </c>
     </row>
@@ -3564,7 +4348,7 @@
         <v>401</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" si="0"/>
+        <f>"if "&amp;A10&amp;" &gt; "&amp;J10&amp;" then "&amp;A10&amp;" = "&amp;J10&amp;";"</f>
         <v>if store_purchase_event_count &gt; 20 then store_purchase_event_count = 20;</v>
       </c>
     </row>
@@ -3606,17 +4390,17 @@
         <v>55</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="0"/>
+        <f>"if "&amp;A11&amp;" &gt; "&amp;J11&amp;" then "&amp;A11&amp;" = "&amp;J11&amp;";"</f>
         <v>if active_days &gt; 53 then active_days = 53;</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="40"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="70"/>
+    </row>
+    <row r="14" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -3650,416 +4434,416 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="50" t="s">
+      <c r="E20" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="50" t="s">
+      <c r="F20" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="50" t="s">
+      <c r="G20" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="50" t="s">
+      <c r="H20" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="I20" s="50" t="s">
+      <c r="I20" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="J20" s="50" t="s">
+      <c r="J20" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="50" t="s">
+      <c r="K20" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="L20" s="50" t="s">
+      <c r="L20" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="M20" s="50" t="s">
+      <c r="M20" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="N20" s="50" t="s">
+      <c r="N20" s="36" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="52">
+      <c r="B21" s="38">
         <v>10000</v>
       </c>
-      <c r="C21" s="52">
+      <c r="C21" s="38">
         <v>0</v>
       </c>
-      <c r="D21" s="52">
+      <c r="D21" s="38">
         <v>35716.75</v>
       </c>
-      <c r="E21" s="52">
+      <c r="E21" s="38">
         <v>75896.320000000007</v>
       </c>
-      <c r="F21" s="52">
+      <c r="F21" s="38">
         <v>0</v>
       </c>
-      <c r="G21" s="52">
+      <c r="G21" s="38">
         <v>3</v>
       </c>
-      <c r="H21" s="52">
+      <c r="H21" s="38">
         <v>72</v>
       </c>
-      <c r="I21" s="52">
+      <c r="I21" s="38">
         <v>1449</v>
       </c>
-      <c r="J21" s="52">
+      <c r="J21" s="38">
         <v>8063.5</v>
       </c>
-      <c r="K21" s="52">
+      <c r="K21" s="38">
         <v>36033</v>
       </c>
-      <c r="L21" s="52">
+      <c r="L21" s="38">
         <v>160085.5</v>
       </c>
-      <c r="M21" s="52">
+      <c r="M21" s="38">
         <v>357137.5</v>
       </c>
-      <c r="N21" s="52">
+      <c r="N21" s="38">
         <v>1628535</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="52">
+      <c r="B22" s="38">
         <v>10000</v>
       </c>
-      <c r="C22" s="52">
+      <c r="C22" s="38">
         <v>0</v>
       </c>
-      <c r="D22" s="52">
+      <c r="D22" s="38">
         <v>64.175799999999995</v>
       </c>
-      <c r="E22" s="52">
+      <c r="E22" s="38">
         <v>102.1226547</v>
       </c>
-      <c r="F22" s="52">
+      <c r="F22" s="38">
         <v>1</v>
       </c>
-      <c r="G22" s="52">
+      <c r="G22" s="38">
         <v>1</v>
       </c>
-      <c r="H22" s="52">
+      <c r="H22" s="38">
         <v>1</v>
       </c>
-      <c r="I22" s="52">
+      <c r="I22" s="38">
         <v>3</v>
       </c>
-      <c r="J22" s="52">
+      <c r="J22" s="38">
         <v>17</v>
       </c>
-      <c r="K22" s="52">
+      <c r="K22" s="38">
         <v>79</v>
       </c>
-      <c r="L22" s="52">
+      <c r="L22" s="38">
         <v>286</v>
       </c>
-      <c r="M22" s="52">
+      <c r="M22" s="38">
         <v>465.5</v>
       </c>
-      <c r="N22" s="52">
+      <c r="N22" s="38">
         <v>828</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="52">
+      <c r="B23" s="38">
         <v>10000</v>
       </c>
-      <c r="C23" s="52">
+      <c r="C23" s="38">
         <v>0</v>
       </c>
-      <c r="D23" s="52">
+      <c r="D23" s="38">
         <v>721.42070000000001</v>
       </c>
-      <c r="E23" s="52">
+      <c r="E23" s="38">
         <v>1443.56</v>
       </c>
-      <c r="F23" s="52">
+      <c r="F23" s="38">
         <v>1</v>
       </c>
-      <c r="G23" s="52">
+      <c r="G23" s="38">
         <v>4</v>
       </c>
-      <c r="H23" s="52">
+      <c r="H23" s="38">
         <v>6</v>
       </c>
-      <c r="I23" s="52">
+      <c r="I23" s="38">
         <v>41</v>
       </c>
-      <c r="J23" s="52">
+      <c r="J23" s="38">
         <v>197</v>
       </c>
-      <c r="K23" s="52">
+      <c r="K23" s="38">
         <v>789</v>
       </c>
-      <c r="L23" s="52">
+      <c r="L23" s="38">
         <v>3032.5</v>
       </c>
-      <c r="M23" s="52">
+      <c r="M23" s="38">
         <v>6603</v>
       </c>
-      <c r="N23" s="52">
+      <c r="N23" s="38">
         <v>25869</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="52">
+      <c r="B24" s="38">
         <v>10000</v>
       </c>
-      <c r="C24" s="52">
+      <c r="C24" s="38">
         <v>0</v>
       </c>
-      <c r="D24" s="52">
+      <c r="D24" s="38">
         <v>109.08669999999999</v>
       </c>
-      <c r="E24" s="52">
+      <c r="E24" s="38">
         <v>189.6328675</v>
       </c>
-      <c r="F24" s="52">
+      <c r="F24" s="38">
         <v>0</v>
       </c>
-      <c r="G24" s="52">
+      <c r="G24" s="38">
         <v>1</v>
       </c>
-      <c r="H24" s="52">
+      <c r="H24" s="38">
         <v>2</v>
       </c>
-      <c r="I24" s="52">
+      <c r="I24" s="38">
         <v>6</v>
       </c>
-      <c r="J24" s="52">
+      <c r="J24" s="38">
         <v>28</v>
       </c>
-      <c r="K24" s="52">
+      <c r="K24" s="38">
         <v>128</v>
       </c>
-      <c r="L24" s="52">
+      <c r="L24" s="38">
         <v>484</v>
       </c>
-      <c r="M24" s="52">
+      <c r="M24" s="38">
         <v>896</v>
       </c>
-      <c r="N24" s="52">
+      <c r="N24" s="38">
         <v>2671</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="52">
+      <c r="B25" s="38">
         <v>10000</v>
       </c>
-      <c r="C25" s="52">
+      <c r="C25" s="38">
         <v>0</v>
       </c>
-      <c r="D25" s="52">
+      <c r="D25" s="38">
         <v>108.4248</v>
       </c>
-      <c r="E25" s="52">
+      <c r="E25" s="38">
         <v>189.11090039999999</v>
       </c>
-      <c r="F25" s="52">
+      <c r="F25" s="38">
         <v>0</v>
       </c>
-      <c r="G25" s="52">
+      <c r="G25" s="38">
         <v>1</v>
       </c>
-      <c r="H25" s="52">
+      <c r="H25" s="38">
         <v>2</v>
       </c>
-      <c r="I25" s="52">
+      <c r="I25" s="38">
         <v>6</v>
       </c>
-      <c r="J25" s="52">
+      <c r="J25" s="38">
         <v>28</v>
       </c>
-      <c r="K25" s="52">
+      <c r="K25" s="38">
         <v>127</v>
       </c>
-      <c r="L25" s="52">
+      <c r="L25" s="38">
         <v>484</v>
       </c>
-      <c r="M25" s="52">
+      <c r="M25" s="38">
         <v>895</v>
       </c>
-      <c r="N25" s="52">
+      <c r="N25" s="38">
         <v>2664</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="52">
+      <c r="B26" s="38">
         <v>10000</v>
       </c>
-      <c r="C26" s="52">
+      <c r="C26" s="38">
         <v>0</v>
       </c>
-      <c r="D26" s="52">
+      <c r="D26" s="38">
         <v>202.2516</v>
       </c>
-      <c r="E26" s="52">
+      <c r="E26" s="38">
         <v>737.30736730000001</v>
       </c>
-      <c r="F26" s="52">
+      <c r="F26" s="38">
         <v>0</v>
       </c>
-      <c r="G26" s="52">
+      <c r="G26" s="38">
         <v>0</v>
       </c>
-      <c r="H26" s="52">
+      <c r="H26" s="38">
         <v>0</v>
       </c>
-      <c r="I26" s="52">
+      <c r="I26" s="38">
         <v>3</v>
       </c>
-      <c r="J26" s="52">
+      <c r="J26" s="38">
         <v>20</v>
       </c>
-      <c r="K26" s="52">
+      <c r="K26" s="38">
         <v>103</v>
       </c>
-      <c r="L26" s="52">
+      <c r="L26" s="38">
         <v>957.5</v>
       </c>
-      <c r="M26" s="52">
+      <c r="M26" s="38">
         <v>3090.5</v>
       </c>
-      <c r="N26" s="52">
+      <c r="N26" s="38">
         <v>17538</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="52">
+      <c r="B27" s="38">
         <v>10000</v>
       </c>
-      <c r="C27" s="52">
+      <c r="C27" s="38">
         <v>0</v>
       </c>
-      <c r="D27" s="52">
+      <c r="D27" s="38">
         <v>4.6763000000000003</v>
       </c>
-      <c r="E27" s="52">
+      <c r="E27" s="38">
         <v>17.474897899999998</v>
       </c>
-      <c r="F27" s="52">
+      <c r="F27" s="38">
         <v>0</v>
       </c>
-      <c r="G27" s="52">
+      <c r="G27" s="38">
         <v>0</v>
       </c>
-      <c r="H27" s="52">
+      <c r="H27" s="38">
         <v>0</v>
       </c>
-      <c r="I27" s="52">
+      <c r="I27" s="38">
         <v>0</v>
       </c>
-      <c r="J27" s="52">
+      <c r="J27" s="38">
         <v>0</v>
       </c>
-      <c r="K27" s="52">
+      <c r="K27" s="38">
         <v>3</v>
       </c>
-      <c r="L27" s="52">
+      <c r="L27" s="38">
         <v>20</v>
       </c>
-      <c r="M27" s="52">
+      <c r="M27" s="38">
         <v>71.5</v>
       </c>
-      <c r="N27" s="52">
+      <c r="N27" s="38">
         <v>401</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="52">
+      <c r="B28" s="38">
         <v>10000</v>
       </c>
-      <c r="C28" s="52">
+      <c r="C28" s="38">
         <v>0</v>
       </c>
-      <c r="D28" s="52">
+      <c r="D28" s="38">
         <v>15.234299999999999</v>
       </c>
-      <c r="E28" s="52">
+      <c r="E28" s="38">
         <v>16.4244141</v>
       </c>
-      <c r="F28" s="52">
+      <c r="F28" s="38">
         <v>1</v>
       </c>
-      <c r="G28" s="52">
+      <c r="G28" s="38">
         <v>1</v>
       </c>
-      <c r="H28" s="52">
+      <c r="H28" s="38">
         <v>1</v>
       </c>
-      <c r="I28" s="52">
+      <c r="I28" s="38">
         <v>2</v>
       </c>
-      <c r="J28" s="52">
+      <c r="J28" s="38">
         <v>8</v>
       </c>
-      <c r="K28" s="52">
+      <c r="K28" s="38">
         <v>24</v>
       </c>
-      <c r="L28" s="52">
+      <c r="L28" s="38">
         <v>53</v>
       </c>
-      <c r="M28" s="52">
+      <c r="M28" s="38">
         <v>55</v>
       </c>
-      <c r="N28" s="52">
+      <c r="N28" s="38">
         <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4073,33 +4857,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" customWidth="1"/>
+    <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
@@ -4119,7 +4906,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>53</v>
       </c>
@@ -4139,7 +4926,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>55</v>
       </c>
@@ -4155,7 +4942,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>56</v>
       </c>
@@ -4169,7 +4956,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -4177,7 +4964,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>48</v>
       </c>
@@ -4197,7 +4984,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
@@ -4217,11 +5004,285 @@
         <v>54</v>
       </c>
     </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="70" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.68552999999999997</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.72641999999999995</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.70162999999999998</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.71409</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.71369000000000005</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.55376999999999998</v>
+      </c>
+      <c r="I12" s="40">
+        <v>-0.35420000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.68552999999999997</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.88327</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.96926000000000001</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.94110000000000005</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.94020999999999999</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.84877000000000002</v>
+      </c>
+      <c r="I13" s="40">
+        <v>-0.41996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.72641999999999995</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.88327</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.90925999999999996</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.96567999999999998</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.96567999999999998</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.71652000000000005</v>
+      </c>
+      <c r="I14" s="40">
+        <v>-0.44924999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.70162999999999998</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.96926000000000001</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.90925999999999996</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.94816999999999996</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.94762000000000002</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.88634999999999997</v>
+      </c>
+      <c r="I15" s="40">
+        <v>-0.43568000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.71409</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.94110000000000005</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.96567999999999998</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.94816999999999996</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.99985999999999997</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.75649</v>
+      </c>
+      <c r="I16" s="40">
+        <v>-0.43809999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.71369000000000005</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.94020999999999999</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.96567999999999998</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.94762000000000002</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.99985999999999997</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.75568999999999997</v>
+      </c>
+      <c r="I17" s="40">
+        <v>-0.43744</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.55376999999999998</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.84877000000000002</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.71652000000000005</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.88634999999999997</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.75649</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.75568999999999997</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="40">
+        <v>-0.33734999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="40">
+        <v>-0.35420000000000001</v>
+      </c>
+      <c r="C19" s="40">
+        <v>-0.41996</v>
+      </c>
+      <c r="D19" s="40">
+        <v>-0.44924999999999998</v>
+      </c>
+      <c r="E19" s="40">
+        <v>-0.43568000000000001</v>
+      </c>
+      <c r="F19" s="40">
+        <v>-0.43809999999999999</v>
+      </c>
+      <c r="G19" s="40">
+        <v>-0.43744</v>
+      </c>
+      <c r="H19" s="40">
+        <v>-0.33734999999999998</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A10:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4245,32 +5306,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="I1" s="41" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="I1" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="43"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="73"/>
     </row>
     <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="77" t="s">
         <v>67</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -4279,10 +5340,10 @@
       <c r="E2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="77" t="s">
         <v>69</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -4291,27 +5352,27 @@
       <c r="J2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="K2" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="44" t="s">
+      <c r="L2" s="75"/>
+      <c r="M2" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="N2" s="45"/>
+      <c r="N2" s="75"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="4" t="s">
         <v>55</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4" t="s">
@@ -4592,12 +5653,12 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
       <c r="I11" s="4">
         <v>8</v>
       </c>
@@ -4708,11 +5769,11 @@
       <c r="D15" s="5">
         <v>0.79700000000000004</v>
       </c>
-      <c r="I15" s="41" t="s">
+      <c r="I15" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="J15" s="42"/>
-      <c r="K15" s="43"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="73"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I16" s="4" t="s">
@@ -4780,848 +5841,1052 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:O12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="1.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
     <col min="10" max="10" width="17.85546875" customWidth="1"/>
-    <col min="11" max="11" width="4" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
     <col min="12" max="14" width="9" customWidth="1"/>
     <col min="15" max="15" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="78" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+    </row>
+    <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="64" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="63">
+        <v>0</v>
+      </c>
+      <c r="B3" s="63">
+        <v>300</v>
+      </c>
+      <c r="C3" s="63">
+        <v>12.486666667</v>
+      </c>
+      <c r="D3" s="63">
+        <v>12.714864285999999</v>
+      </c>
+      <c r="E3" s="63">
+        <v>3746</v>
+      </c>
+      <c r="F3" s="63">
+        <v>3814.4592856999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="63">
+        <v>1</v>
+      </c>
+      <c r="B4" s="63">
+        <v>300</v>
+      </c>
+      <c r="C4" s="63">
+        <v>7.3066666667</v>
+      </c>
+      <c r="D4" s="63">
+        <v>7.6612503431999999</v>
+      </c>
+      <c r="E4" s="63">
+        <v>2192</v>
+      </c>
+      <c r="F4" s="63">
+        <v>2298.3751029999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="63">
+        <v>2</v>
+      </c>
+      <c r="B5" s="63">
+        <v>300</v>
+      </c>
+      <c r="C5" s="63">
+        <v>4.2666666666999999</v>
+      </c>
+      <c r="D5" s="63">
+        <v>4.2561089253000004</v>
+      </c>
+      <c r="E5" s="63">
+        <v>1280</v>
+      </c>
+      <c r="F5" s="63">
+        <v>1276.8326775999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="63">
+        <v>3</v>
+      </c>
+      <c r="B6" s="63">
+        <v>300</v>
+      </c>
+      <c r="C6" s="63">
+        <v>2.54</v>
+      </c>
+      <c r="D6" s="63">
+        <v>2.4879035964999998</v>
+      </c>
+      <c r="E6" s="63">
+        <v>762</v>
+      </c>
+      <c r="F6" s="63">
+        <v>746.37107895999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="63">
+        <v>4</v>
+      </c>
+      <c r="B7" s="63">
+        <v>300</v>
+      </c>
+      <c r="C7" s="63">
+        <v>1.2633333333000001</v>
+      </c>
+      <c r="D7" s="63">
+        <v>1.3346437070999999</v>
+      </c>
+      <c r="E7" s="63">
+        <v>379</v>
+      </c>
+      <c r="F7" s="63">
+        <v>400.39311212000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="63">
+        <v>5</v>
+      </c>
+      <c r="B8" s="63">
+        <v>300</v>
+      </c>
+      <c r="C8" s="63">
+        <v>0.53666666669999996</v>
+      </c>
+      <c r="D8" s="63">
+        <v>0.64394111909999996</v>
+      </c>
+      <c r="E8" s="63">
+        <v>161</v>
+      </c>
+      <c r="F8" s="63">
+        <v>193.18233572</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="63">
+        <v>6</v>
+      </c>
+      <c r="B9" s="63">
+        <v>300</v>
+      </c>
+      <c r="C9" s="63">
+        <v>0.22</v>
+      </c>
+      <c r="D9" s="63">
+        <v>0.2417540346</v>
+      </c>
+      <c r="E9" s="63">
+        <v>66</v>
+      </c>
+      <c r="F9" s="63">
+        <v>72.526210378000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="63">
+        <v>7</v>
+      </c>
+      <c r="B10" s="63">
+        <v>300</v>
+      </c>
+      <c r="C10" s="63">
+        <v>0.18333333330000001</v>
+      </c>
+      <c r="D10" s="63">
+        <v>1.7757128899999999E-2</v>
+      </c>
+      <c r="E10" s="63">
+        <v>55</v>
+      </c>
+      <c r="F10" s="63">
+        <v>5.3271386829000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="63">
+        <v>8</v>
+      </c>
+      <c r="B11" s="63">
+        <v>300</v>
+      </c>
+      <c r="C11" s="63">
+        <v>0.11333333330000001</v>
+      </c>
+      <c r="D11" s="63">
+        <v>-0.121482653</v>
+      </c>
+      <c r="E11" s="63">
+        <v>34</v>
+      </c>
+      <c r="F11" s="63">
+        <v>-36.444795810000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="63">
+        <v>9</v>
+      </c>
+      <c r="B12" s="63">
+        <v>300</v>
+      </c>
+      <c r="C12" s="63">
+        <v>6.6666666999999997E-3</v>
+      </c>
+      <c r="D12" s="63">
+        <v>-0.20225683799999999</v>
+      </c>
+      <c r="E12" s="63">
+        <v>2</v>
+      </c>
+      <c r="F12" s="63">
+        <v>-60.67705127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="78" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="J1" s="40" t="s">
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="79"/>
+      <c r="H16" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-    </row>
-    <row r="2" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="79"/>
+    </row>
+    <row r="17" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B18" s="3">
         <v>700</v>
       </c>
-      <c r="C3" s="54">
+      <c r="C18" s="3">
         <v>0.73315699999999995</v>
       </c>
-      <c r="D3" s="54">
+      <c r="D18" s="3">
         <v>0.74838000000000005</v>
       </c>
-      <c r="E3" s="54">
+      <c r="E18" s="3">
         <v>553</v>
       </c>
-      <c r="F3" s="6">
-        <f>B3-E3</f>
+      <c r="F18" s="6">
+        <f>B18-E18</f>
         <v>147</v>
       </c>
-      <c r="J3" s="3">
+      <c r="H18" s="3">
         <v>9</v>
       </c>
-      <c r="K3" s="3">
+      <c r="I18" s="3">
         <v>300</v>
       </c>
-      <c r="L3" s="54">
+      <c r="J18" s="3">
         <v>0.733738</v>
       </c>
-      <c r="M3" s="54">
+      <c r="K18" s="3">
         <v>0.744286</v>
       </c>
-      <c r="N3" s="54">
+      <c r="L18" s="3">
         <v>239</v>
       </c>
-      <c r="O3" s="6">
-        <f>K3-N3</f>
+      <c r="M18" s="6">
+        <f>I18-L18</f>
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>8</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B19" s="3">
         <v>700</v>
       </c>
-      <c r="C4" s="54">
+      <c r="C19" s="3">
         <v>0.718171</v>
       </c>
-      <c r="D4" s="54">
+      <c r="D19" s="3">
         <v>0.73315300000000005</v>
       </c>
-      <c r="E4" s="54">
+      <c r="E19" s="3">
         <v>525</v>
       </c>
-      <c r="F4" s="6">
-        <f t="shared" ref="F4:F12" si="0">B4-E4</f>
+      <c r="F19" s="6">
+        <f t="shared" ref="F19:F27" si="0">B19-E19</f>
         <v>175</v>
       </c>
-      <c r="J4" s="3">
+      <c r="H19" s="3">
         <v>8</v>
       </c>
-      <c r="K4" s="3">
+      <c r="I19" s="3">
         <v>300</v>
       </c>
-      <c r="L4" s="54">
+      <c r="J19" s="3">
         <v>0.71843999999999997</v>
       </c>
-      <c r="M4" s="54">
+      <c r="K19" s="3">
         <v>0.73367700000000002</v>
       </c>
-      <c r="N4" s="54">
+      <c r="L19" s="3">
         <v>238</v>
       </c>
-      <c r="O4" s="6">
-        <f t="shared" ref="O4:O12" si="1">K4-N4</f>
+      <c r="M19" s="6">
+        <f t="shared" ref="M19:M27" si="1">I19-L19</f>
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B20" s="3">
         <v>700</v>
       </c>
-      <c r="C5" s="54">
+      <c r="C20" s="3">
         <v>0.69414500000000001</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D20" s="3">
         <v>0.71815700000000005</v>
       </c>
-      <c r="E5" s="54">
+      <c r="E20" s="3">
         <v>499</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F20" s="6">
         <f t="shared" si="0"/>
         <v>201</v>
       </c>
-      <c r="J5" s="3">
+      <c r="H20" s="3">
         <v>7</v>
       </c>
-      <c r="K5" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="L5" s="54">
+      <c r="J20" s="3">
         <v>0.69187500000000002</v>
       </c>
-      <c r="M5" s="54">
+      <c r="K20" s="3">
         <v>0.71835599999999999</v>
       </c>
-      <c r="N5" s="54">
+      <c r="L20" s="3">
         <v>229</v>
       </c>
-      <c r="O5" s="6">
+      <c r="M20" s="6">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>6</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B21" s="3">
         <v>700</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C21" s="3">
         <v>0.65181199999999995</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D21" s="3">
         <v>0.69411800000000001</v>
       </c>
-      <c r="E6" s="54">
+      <c r="E21" s="3">
         <v>467</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F21" s="6">
         <f t="shared" si="0"/>
         <v>233</v>
       </c>
-      <c r="J6" s="3">
+      <c r="H21" s="3">
         <v>6</v>
       </c>
-      <c r="K6" s="3">
+      <c r="I21" s="3">
         <v>300</v>
       </c>
-      <c r="L6" s="54">
+      <c r="J21" s="3">
         <v>0.65329099999999996</v>
       </c>
-      <c r="M6" s="54">
+      <c r="K21" s="3">
         <v>0.69179599999999997</v>
       </c>
-      <c r="N6" s="54">
+      <c r="L21" s="3">
         <v>212</v>
       </c>
-      <c r="O6" s="6">
+      <c r="M21" s="6">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B22" s="3">
         <v>700</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C22" s="3">
         <v>0.58277400000000001</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D22" s="3">
         <v>0.65171400000000002</v>
       </c>
-      <c r="E7" s="54">
+      <c r="E22" s="3">
         <v>398</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F22" s="6">
         <f t="shared" si="0"/>
         <v>302</v>
       </c>
-      <c r="J7" s="3">
+      <c r="H22" s="3">
         <v>5</v>
       </c>
-      <c r="K7" s="3">
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="L7" s="54">
+      <c r="J22" s="3">
         <v>0.57716900000000004</v>
       </c>
-      <c r="M7" s="54">
+      <c r="K22" s="3">
         <v>0.65327800000000003</v>
       </c>
-      <c r="N7" s="54">
+      <c r="L22" s="3">
         <v>159</v>
       </c>
-      <c r="O7" s="6">
+      <c r="M22" s="6">
         <f t="shared" si="1"/>
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B23" s="3">
         <v>700</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C23" s="3">
         <v>0.46685900000000002</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D23" s="3">
         <v>0.582673</v>
       </c>
-      <c r="E8" s="54">
+      <c r="E23" s="3">
         <v>325</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F23" s="6">
         <f t="shared" si="0"/>
         <v>375</v>
       </c>
-      <c r="J8" s="3">
+      <c r="H23" s="3">
         <v>4</v>
       </c>
-      <c r="K8" s="3">
+      <c r="I23" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="54">
+      <c r="J23" s="3">
         <v>0.470503</v>
       </c>
-      <c r="M8" s="54">
+      <c r="K23" s="3">
         <v>0.57708300000000001</v>
       </c>
-      <c r="N8" s="54">
+      <c r="L23" s="3">
         <v>141</v>
       </c>
-      <c r="O8" s="6">
+      <c r="M23" s="6">
         <f t="shared" si="1"/>
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>3</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B24" s="3">
         <v>700</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C24" s="3">
         <v>0.31247599999999998</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D24" s="3">
         <v>0.46675100000000003</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E24" s="3">
         <v>276</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F24" s="6">
         <f t="shared" si="0"/>
         <v>424</v>
       </c>
-      <c r="J9" s="3">
+      <c r="H24" s="3">
         <v>3</v>
       </c>
-      <c r="K9" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="L9" s="54">
+      <c r="J24" s="3">
         <v>0.31868000000000002</v>
       </c>
-      <c r="M9" s="54">
+      <c r="K24" s="3">
         <v>0.46993200000000002</v>
       </c>
-      <c r="N9" s="54">
+      <c r="L24" s="3">
         <v>111</v>
       </c>
-      <c r="O9" s="6">
+      <c r="M24" s="6">
         <f t="shared" si="1"/>
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>2</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B25" s="3">
         <v>700</v>
       </c>
-      <c r="C10" s="54">
+      <c r="C25" s="3">
         <v>0.14296200000000001</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D25" s="3">
         <v>0.31235000000000002</v>
       </c>
-      <c r="E10" s="54">
+      <c r="E25" s="3">
         <v>190</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F25" s="6">
         <f t="shared" si="0"/>
         <v>510</v>
       </c>
-      <c r="J10" s="3">
+      <c r="H25" s="3">
         <v>2</v>
       </c>
-      <c r="K10" s="3">
+      <c r="I25" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="54">
+      <c r="J25" s="3">
         <v>0.15678800000000001</v>
       </c>
-      <c r="M10" s="54">
+      <c r="K25" s="3">
         <v>0.31667299999999998</v>
       </c>
-      <c r="N10" s="54">
+      <c r="L25" s="3">
         <v>78</v>
       </c>
-      <c r="O10" s="6">
+      <c r="M25" s="6">
         <f t="shared" si="1"/>
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>1</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B26" s="3">
         <v>700</v>
       </c>
-      <c r="C11" s="54">
+      <c r="C26" s="3">
         <v>5.2481E-2</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D26" s="3">
         <v>0.14296</v>
       </c>
-      <c r="E11" s="54">
+      <c r="E26" s="3">
         <v>56</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F26" s="6">
         <f t="shared" si="0"/>
         <v>644</v>
       </c>
-      <c r="J11" s="3">
+      <c r="H26" s="3">
         <v>1</v>
       </c>
-      <c r="K11" s="3">
+      <c r="I26" s="3">
         <v>300</v>
       </c>
-      <c r="L11" s="54">
+      <c r="J26" s="3">
         <v>4.9748000000000001E-2</v>
       </c>
-      <c r="M11" s="54">
+      <c r="K26" s="3">
         <v>0.155727</v>
       </c>
-      <c r="N11" s="54">
+      <c r="L26" s="3">
         <v>39</v>
       </c>
-      <c r="O11" s="6">
+      <c r="M26" s="6">
         <f t="shared" si="1"/>
         <v>261</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>0</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B27" s="3">
         <v>700</v>
       </c>
-      <c r="C12" s="54">
+      <c r="C27" s="3">
         <v>5.6099999999999998E-4</v>
       </c>
-      <c r="D12" s="54">
+      <c r="D27" s="3">
         <v>5.2458999999999999E-2</v>
       </c>
-      <c r="E12" s="54">
+      <c r="E27" s="3">
         <v>20</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F27" s="6">
         <f t="shared" si="0"/>
         <v>680</v>
       </c>
-      <c r="J12" s="3">
+      <c r="H27" s="3">
         <v>0</v>
       </c>
-      <c r="K12" s="3">
+      <c r="I27" s="3">
         <v>300</v>
       </c>
-      <c r="L12" s="54">
+      <c r="J27" s="3">
         <v>9.8499999999999998E-4</v>
       </c>
-      <c r="M12" s="54">
+      <c r="K27" s="3">
         <v>4.9520000000000002E-2</v>
       </c>
-      <c r="N12" s="54">
+      <c r="L27" s="3">
         <v>18</v>
       </c>
-      <c r="O12" s="6">
+      <c r="M27" s="6">
         <f t="shared" si="1"/>
         <v>282</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="J14" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="K14" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="L14" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="M14" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="N14" s="53" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="54">
-        <v>9</v>
-      </c>
-      <c r="B15" s="54">
-        <v>700</v>
-      </c>
-      <c r="C15" s="54">
-        <v>553</v>
-      </c>
-      <c r="D15" s="54">
-        <v>0.73315699999999995</v>
-      </c>
-      <c r="E15" s="54">
-        <v>0.74838000000000005</v>
-      </c>
-      <c r="J15" s="54">
-        <v>9</v>
-      </c>
-      <c r="K15" s="54">
-        <v>300</v>
-      </c>
-      <c r="L15" s="54">
-        <v>239</v>
-      </c>
-      <c r="M15" s="54">
-        <v>0.733738</v>
-      </c>
-      <c r="N15" s="54">
-        <v>0.744286</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="54">
-        <v>8</v>
-      </c>
-      <c r="B16" s="54">
-        <v>700</v>
-      </c>
-      <c r="C16" s="54">
-        <v>525</v>
-      </c>
-      <c r="D16" s="54">
-        <v>0.718171</v>
-      </c>
-      <c r="E16" s="54">
-        <v>0.73315300000000005</v>
-      </c>
-      <c r="J16" s="54">
-        <v>8</v>
-      </c>
-      <c r="K16" s="54">
-        <v>300</v>
-      </c>
-      <c r="L16" s="54">
-        <v>238</v>
-      </c>
-      <c r="M16" s="54">
-        <v>0.71843999999999997</v>
-      </c>
-      <c r="N16" s="54">
-        <v>0.73367700000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="54">
-        <v>7</v>
-      </c>
-      <c r="B17" s="54">
-        <v>700</v>
-      </c>
-      <c r="C17" s="54">
-        <v>499</v>
-      </c>
-      <c r="D17" s="54">
-        <v>0.69414500000000001</v>
-      </c>
-      <c r="E17" s="54">
-        <v>0.71815700000000005</v>
-      </c>
-      <c r="J17" s="54">
-        <v>7</v>
-      </c>
-      <c r="K17" s="54">
-        <v>300</v>
-      </c>
-      <c r="L17" s="54">
-        <v>229</v>
-      </c>
-      <c r="M17" s="54">
-        <v>0.69187500000000002</v>
-      </c>
-      <c r="N17" s="54">
-        <v>0.71835599999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="54">
-        <v>6</v>
-      </c>
-      <c r="B18" s="54">
-        <v>700</v>
-      </c>
-      <c r="C18" s="54">
-        <v>467</v>
-      </c>
-      <c r="D18" s="54">
-        <v>0.65181199999999995</v>
-      </c>
-      <c r="E18" s="54">
-        <v>0.69411800000000001</v>
-      </c>
-      <c r="J18" s="54">
-        <v>6</v>
-      </c>
-      <c r="K18" s="54">
-        <v>300</v>
-      </c>
-      <c r="L18" s="54">
-        <v>212</v>
-      </c>
-      <c r="M18" s="54">
-        <v>0.65329099999999996</v>
-      </c>
-      <c r="N18" s="54">
-        <v>0.69179599999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="54">
-        <v>5</v>
-      </c>
-      <c r="B19" s="54">
-        <v>700</v>
-      </c>
-      <c r="C19" s="54">
-        <v>398</v>
-      </c>
-      <c r="D19" s="54">
-        <v>0.58277400000000001</v>
-      </c>
-      <c r="E19" s="54">
-        <v>0.65171400000000002</v>
-      </c>
-      <c r="J19" s="54">
-        <v>5</v>
-      </c>
-      <c r="K19" s="54">
-        <v>300</v>
-      </c>
-      <c r="L19" s="54">
-        <v>159</v>
-      </c>
-      <c r="M19" s="54">
-        <v>0.57716900000000004</v>
-      </c>
-      <c r="N19" s="54">
-        <v>0.65327800000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="54">
-        <v>4</v>
-      </c>
-      <c r="B20" s="54">
-        <v>700</v>
-      </c>
-      <c r="C20" s="54">
-        <v>325</v>
-      </c>
-      <c r="D20" s="54">
-        <v>0.46685900000000002</v>
-      </c>
-      <c r="E20" s="54">
-        <v>0.582673</v>
-      </c>
-      <c r="J20" s="54">
-        <v>4</v>
-      </c>
-      <c r="K20" s="54">
-        <v>300</v>
-      </c>
-      <c r="L20" s="54">
-        <v>141</v>
-      </c>
-      <c r="M20" s="54">
-        <v>0.470503</v>
-      </c>
-      <c r="N20" s="54">
-        <v>0.57708300000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="54">
-        <v>3</v>
-      </c>
-      <c r="B21" s="54">
-        <v>700</v>
-      </c>
-      <c r="C21" s="54">
-        <v>276</v>
-      </c>
-      <c r="D21" s="54">
-        <v>0.31247599999999998</v>
-      </c>
-      <c r="E21" s="54">
-        <v>0.46675100000000003</v>
-      </c>
-      <c r="J21" s="54">
-        <v>3</v>
-      </c>
-      <c r="K21" s="54">
-        <v>300</v>
-      </c>
-      <c r="L21" s="54">
-        <v>111</v>
-      </c>
-      <c r="M21" s="54">
-        <v>0.31868000000000002</v>
-      </c>
-      <c r="N21" s="54">
-        <v>0.46993200000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="54">
-        <v>2</v>
-      </c>
-      <c r="B22" s="54">
-        <v>700</v>
-      </c>
-      <c r="C22" s="54">
-        <v>190</v>
-      </c>
-      <c r="D22" s="54">
-        <v>0.14296200000000001</v>
-      </c>
-      <c r="E22" s="54">
-        <v>0.31235000000000002</v>
-      </c>
-      <c r="J22" s="54">
-        <v>2</v>
-      </c>
-      <c r="K22" s="54">
-        <v>300</v>
-      </c>
-      <c r="L22" s="54">
-        <v>78</v>
-      </c>
-      <c r="M22" s="54">
-        <v>0.15678800000000001</v>
-      </c>
-      <c r="N22" s="54">
-        <v>0.31667299999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="54">
-        <v>1</v>
-      </c>
-      <c r="B23" s="54">
-        <v>700</v>
-      </c>
-      <c r="C23" s="54">
-        <v>56</v>
-      </c>
-      <c r="D23" s="54">
-        <v>5.2481E-2</v>
-      </c>
-      <c r="E23" s="54">
-        <v>0.14296</v>
-      </c>
-      <c r="J23" s="54">
-        <v>1</v>
-      </c>
-      <c r="K23" s="54">
-        <v>300</v>
-      </c>
-      <c r="L23" s="54">
-        <v>39</v>
-      </c>
-      <c r="M23" s="54">
-        <v>4.9748000000000001E-2</v>
-      </c>
-      <c r="N23" s="54">
-        <v>0.155727</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="54">
-        <v>0</v>
-      </c>
-      <c r="B24" s="54">
-        <v>700</v>
-      </c>
-      <c r="C24" s="54">
-        <v>20</v>
-      </c>
-      <c r="D24" s="54">
-        <v>5.6099999999999998E-4</v>
-      </c>
-      <c r="E24" s="54">
-        <v>5.2458999999999999E-2</v>
-      </c>
-      <c r="J24" s="54">
-        <v>0</v>
-      </c>
-      <c r="K24" s="54">
-        <v>300</v>
-      </c>
-      <c r="L24" s="54">
-        <v>18</v>
-      </c>
-      <c r="M24" s="54">
-        <v>9.8499999999999998E-4</v>
-      </c>
-      <c r="N24" s="54">
-        <v>4.9520000000000002E-2</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="J15:N24">
-    <sortCondition descending="1" ref="J14"/>
+  <sortState ref="A18:E27">
+    <sortCondition descending="1" ref="A14"/>
   </sortState>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A15:M15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="41" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="41" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="41" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="41" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="41" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="41" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="41" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" style="41" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="41" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="80" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="82"/>
+    </row>
+    <row r="4" spans="2:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="57" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="56">
+        <v>1</v>
+      </c>
+      <c r="C5" s="55">
+        <v>300</v>
+      </c>
+      <c r="D5" s="60">
+        <v>12.486666667</v>
+      </c>
+      <c r="E5" s="60">
+        <v>12.714864285999999</v>
+      </c>
+      <c r="F5" s="54">
+        <v>3746</v>
+      </c>
+      <c r="G5" s="53">
+        <f t="shared" ref="G5:G15" si="0">F5/$F$15</f>
+        <v>0.43006332805218267</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="49">
+        <v>2</v>
+      </c>
+      <c r="C6" s="52">
+        <v>300</v>
+      </c>
+      <c r="D6" s="61">
+        <v>7.3066666667</v>
+      </c>
+      <c r="E6" s="61">
+        <v>7.6612503431999999</v>
+      </c>
+      <c r="F6" s="51">
+        <v>2192</v>
+      </c>
+      <c r="G6" s="50">
+        <f t="shared" si="0"/>
+        <v>0.25165478245872519</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="49">
+        <v>3</v>
+      </c>
+      <c r="C7" s="52">
+        <v>300</v>
+      </c>
+      <c r="D7" s="61">
+        <v>4.2666666666999999</v>
+      </c>
+      <c r="E7" s="61">
+        <v>4.2561089253000004</v>
+      </c>
+      <c r="F7" s="51">
+        <v>1280</v>
+      </c>
+      <c r="G7" s="50">
+        <f t="shared" si="0"/>
+        <v>0.14695169778611689</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="49">
+        <v>4</v>
+      </c>
+      <c r="C8" s="52">
+        <v>300</v>
+      </c>
+      <c r="D8" s="61">
+        <v>2.54</v>
+      </c>
+      <c r="E8" s="61">
+        <v>2.4879035964999998</v>
+      </c>
+      <c r="F8" s="51">
+        <v>762</v>
+      </c>
+      <c r="G8" s="50">
+        <f t="shared" si="0"/>
+        <v>8.7482182588297708E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="49">
+        <v>5</v>
+      </c>
+      <c r="C9" s="52">
+        <v>300</v>
+      </c>
+      <c r="D9" s="61">
+        <v>1.2633333333000001</v>
+      </c>
+      <c r="E9" s="61">
+        <v>1.3346437070999999</v>
+      </c>
+      <c r="F9" s="51">
+        <v>379</v>
+      </c>
+      <c r="G9" s="50">
+        <f t="shared" si="0"/>
+        <v>4.3511479266358045E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="49">
+        <v>6</v>
+      </c>
+      <c r="C10" s="52">
+        <v>300</v>
+      </c>
+      <c r="D10" s="61">
+        <v>0.53666666669999996</v>
+      </c>
+      <c r="E10" s="61">
+        <v>0.64394111909999996</v>
+      </c>
+      <c r="F10" s="51">
+        <v>161</v>
+      </c>
+      <c r="G10" s="50">
+        <f t="shared" si="0"/>
+        <v>1.8483768237160015E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="49">
+        <v>7</v>
+      </c>
+      <c r="C11" s="52">
+        <v>300</v>
+      </c>
+      <c r="D11" s="61">
+        <v>0.22</v>
+      </c>
+      <c r="E11" s="61">
+        <v>0.2417540346</v>
+      </c>
+      <c r="F11" s="51">
+        <v>66</v>
+      </c>
+      <c r="G11" s="50">
+        <f t="shared" si="0"/>
+        <v>7.5771969170966517E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="49">
+        <v>8</v>
+      </c>
+      <c r="C12" s="52">
+        <v>300</v>
+      </c>
+      <c r="D12" s="61">
+        <v>0.18333333330000001</v>
+      </c>
+      <c r="E12" s="61">
+        <v>1.7757128899999999E-2</v>
+      </c>
+      <c r="F12" s="51">
+        <v>55</v>
+      </c>
+      <c r="G12" s="50">
+        <f t="shared" si="0"/>
+        <v>6.3143307642472097E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="49">
+        <v>9</v>
+      </c>
+      <c r="C13" s="52">
+        <v>300</v>
+      </c>
+      <c r="D13" s="61">
+        <v>0.11333333330000001</v>
+      </c>
+      <c r="E13" s="61">
+        <v>-0.121482653</v>
+      </c>
+      <c r="F13" s="51">
+        <v>34</v>
+      </c>
+      <c r="G13" s="50">
+        <f t="shared" si="0"/>
+        <v>3.9034044724437296E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="49">
+        <v>10</v>
+      </c>
+      <c r="C14" s="48">
+        <v>300</v>
+      </c>
+      <c r="D14" s="62">
+        <v>6.6666666999999997E-3</v>
+      </c>
+      <c r="E14" s="62">
+        <v>-0.20225683799999999</v>
+      </c>
+      <c r="F14" s="47">
+        <v>2</v>
+      </c>
+      <c r="G14" s="46">
+        <f t="shared" si="0"/>
+        <v>2.2961202779080763E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="44">
+        <f>SUM(C5:C14)</f>
+        <v>3000</v>
+      </c>
+      <c r="D15" s="43">
+        <f>AVERAGE(D5:D14)</f>
+        <v>2.8923333333699999</v>
+      </c>
+      <c r="E15" s="43">
+        <f>AVERAGE(E5:E14)</f>
+        <v>2.90344836497</v>
+      </c>
+      <c r="F15" s="43">
+        <f>E15*C15</f>
+        <v>8710.3450949100006</v>
+      </c>
+      <c r="G15" s="42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -5648,17 +6913,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
       <c r="J1" s="31"/>
       <c r="K1" s="31"/>
       <c r="L1" s="31"/>
@@ -6334,17 +7599,17 @@
       </c>
     </row>
     <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
       <c r="J16" s="31"/>
       <c r="K16" s="31"/>
       <c r="L16" s="31"/>
